--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_16ha_100ha_6%_0m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_16ha_100ha_6%_0m_0_TSP/Planilha_Unificada.xlsx
@@ -6752,28 +6752,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1065.996537952091</v>
+        <v>1200.06289335653</v>
       </c>
       <c r="AB2" t="n">
-        <v>1458.543491674204</v>
+        <v>1641.978993728728</v>
       </c>
       <c r="AC2" t="n">
-        <v>1319.342147907465</v>
+        <v>1485.270823099249</v>
       </c>
       <c r="AD2" t="n">
-        <v>1065996.537952091</v>
+        <v>1200062.89335653</v>
       </c>
       <c r="AE2" t="n">
-        <v>1458543.491674204</v>
+        <v>1641978.993728728</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.900683543631137e-07</v>
+        <v>1.27680712542413e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.01822916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1319342.147907465</v>
+        <v>1485270.823099249</v>
       </c>
     </row>
     <row r="3">
@@ -6858,28 +6858,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>753.1509829619661</v>
+        <v>850.7158773799425</v>
       </c>
       <c r="AB3" t="n">
-        <v>1030.49440156491</v>
+        <v>1163.986994366947</v>
       </c>
       <c r="AC3" t="n">
-        <v>932.1454621875303</v>
+        <v>1052.897709290572</v>
       </c>
       <c r="AD3" t="n">
-        <v>753150.9829619661</v>
+        <v>850715.8773799426</v>
       </c>
       <c r="AE3" t="n">
-        <v>1030494.40156491</v>
+        <v>1163986.994366947</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.923692076733933e-07</v>
+        <v>1.651116669330602e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.03125</v>
       </c>
       <c r="AH3" t="n">
-        <v>932145.4621875302</v>
+        <v>1052897.709290572</v>
       </c>
     </row>
     <row r="4">
@@ -6964,28 +6964,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>665.7833282568946</v>
+        <v>763.3481331663199</v>
       </c>
       <c r="AB4" t="n">
-        <v>910.9541220085346</v>
+        <v>1044.446592341024</v>
       </c>
       <c r="AC4" t="n">
-        <v>824.0139391361794</v>
+        <v>944.7660754579948</v>
       </c>
       <c r="AD4" t="n">
-        <v>665783.3282568946</v>
+        <v>763348.1331663199</v>
       </c>
       <c r="AE4" t="n">
-        <v>910954.1220085346</v>
+        <v>1044446.592341024</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.71123457017905e-07</v>
+        <v>1.796832649616794e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.65104166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>824013.9391361794</v>
+        <v>944766.0754579948</v>
       </c>
     </row>
     <row r="5">
@@ -7070,28 +7070,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>623.8329987377637</v>
+        <v>721.3124627926175</v>
       </c>
       <c r="AB5" t="n">
-        <v>853.5558304425385</v>
+        <v>986.9315336528299</v>
       </c>
       <c r="AC5" t="n">
-        <v>772.093659958234</v>
+        <v>892.7401732481105</v>
       </c>
       <c r="AD5" t="n">
-        <v>623832.9987377636</v>
+        <v>721312.4627926175</v>
       </c>
       <c r="AE5" t="n">
-        <v>853555.8304425385</v>
+        <v>986931.5336528299</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.013628343815877e-06</v>
+        <v>1.875477818585721e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.99348958333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>772093.6599582339</v>
+        <v>892740.1732481106</v>
       </c>
     </row>
     <row r="6">
@@ -7176,28 +7176,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>605.8209606368858</v>
+        <v>703.3004246917397</v>
       </c>
       <c r="AB6" t="n">
-        <v>828.9109652778791</v>
+        <v>962.2866684881704</v>
       </c>
       <c r="AC6" t="n">
-        <v>749.8008661356041</v>
+        <v>870.4473794254804</v>
       </c>
       <c r="AD6" t="n">
-        <v>605820.9606368858</v>
+        <v>703300.4246917397</v>
       </c>
       <c r="AE6" t="n">
-        <v>828910.965277879</v>
+        <v>962286.6684881705</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.040517761493671e-06</v>
+        <v>1.925230281327183e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.60286458333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>749800.8661356041</v>
+        <v>870447.3794254805</v>
       </c>
     </row>
     <row r="7">
@@ -7282,28 +7282,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>594.5873650106644</v>
+        <v>679.8713179603909</v>
       </c>
       <c r="AB7" t="n">
-        <v>813.5406641508208</v>
+        <v>930.2299310390995</v>
       </c>
       <c r="AC7" t="n">
-        <v>735.8974849757592</v>
+        <v>841.4500920066351</v>
       </c>
       <c r="AD7" t="n">
-        <v>594587.3650106643</v>
+        <v>679871.3179603909</v>
       </c>
       <c r="AE7" t="n">
-        <v>813540.6641508208</v>
+        <v>930229.9310390995</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.057020207933081e-06</v>
+        <v>1.955764127818689e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.375</v>
       </c>
       <c r="AH7" t="n">
-        <v>735897.4849757592</v>
+        <v>841450.0920066352</v>
       </c>
     </row>
     <row r="8">
@@ -7388,28 +7388,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>584.9451623849468</v>
+        <v>670.2291153346735</v>
       </c>
       <c r="AB8" t="n">
-        <v>800.3477771343561</v>
+        <v>917.037044022635</v>
       </c>
       <c r="AC8" t="n">
-        <v>723.9637085798126</v>
+        <v>829.5163156106889</v>
       </c>
       <c r="AD8" t="n">
-        <v>584945.1623849468</v>
+        <v>670229.1153346734</v>
       </c>
       <c r="AE8" t="n">
-        <v>800347.7771343561</v>
+        <v>917037.044022635</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.071818724259228e-06</v>
+        <v>1.983145257487167e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.1796875</v>
       </c>
       <c r="AH8" t="n">
-        <v>723963.7085798127</v>
+        <v>829516.3156106889</v>
       </c>
     </row>
     <row r="9">
@@ -7494,28 +7494,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>578.9670719574215</v>
+        <v>664.251024907148</v>
       </c>
       <c r="AB9" t="n">
-        <v>792.1682900766798</v>
+        <v>908.8575569649586</v>
       </c>
       <c r="AC9" t="n">
-        <v>716.5648602869387</v>
+        <v>822.1174673178148</v>
       </c>
       <c r="AD9" t="n">
-        <v>578967.0719574215</v>
+        <v>664251.024907148</v>
       </c>
       <c r="AE9" t="n">
-        <v>792168.2900766798</v>
+        <v>908857.5569649586</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.079778178623922e-06</v>
+        <v>1.997872331961854e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.07552083333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>716564.8602869387</v>
+        <v>822117.4673178148</v>
       </c>
     </row>
     <row r="10">
@@ -7600,28 +7600,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>559.5539553887311</v>
+        <v>656.9480785890132</v>
       </c>
       <c r="AB10" t="n">
-        <v>765.6064075411397</v>
+        <v>898.8653436292335</v>
       </c>
       <c r="AC10" t="n">
-        <v>692.5380065407544</v>
+        <v>813.0788967986919</v>
       </c>
       <c r="AD10" t="n">
-        <v>559553.9553887311</v>
+        <v>656948.0785890132</v>
       </c>
       <c r="AE10" t="n">
-        <v>765606.4075411396</v>
+        <v>898865.3436292335</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.089558270643884e-06</v>
+        <v>2.015968062767993e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.9453125</v>
       </c>
       <c r="AH10" t="n">
-        <v>692538.0065407543</v>
+        <v>813078.8967986918</v>
       </c>
     </row>
     <row r="11">
@@ -7706,28 +7706,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>554.9120933192335</v>
+        <v>652.3062165195157</v>
       </c>
       <c r="AB11" t="n">
-        <v>759.2552070731516</v>
+        <v>892.5141431612454</v>
       </c>
       <c r="AC11" t="n">
-        <v>686.7929557314651</v>
+        <v>807.3338459894028</v>
       </c>
       <c r="AD11" t="n">
-        <v>554912.0933192335</v>
+        <v>652306.2165195157</v>
       </c>
       <c r="AE11" t="n">
-        <v>759255.2070731516</v>
+        <v>892514.1431612454</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.095557038302906e-06</v>
+        <v>2.027067353501115e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.87369791666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>686792.9557314651</v>
+        <v>807333.8459894027</v>
       </c>
     </row>
     <row r="12">
@@ -7812,28 +7812,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>549.6711035753772</v>
+        <v>635.0403078711245</v>
       </c>
       <c r="AB12" t="n">
-        <v>752.0842536894584</v>
+        <v>868.8901652303864</v>
       </c>
       <c r="AC12" t="n">
-        <v>680.3063880742153</v>
+        <v>785.9645073558037</v>
       </c>
       <c r="AD12" t="n">
-        <v>549671.1035753771</v>
+        <v>635040.3078711245</v>
       </c>
       <c r="AE12" t="n">
-        <v>752084.2536894584</v>
+        <v>868890.1652303864</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.102116002163548e-06</v>
+        <v>2.039203153874683e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13.7890625</v>
       </c>
       <c r="AH12" t="n">
-        <v>680306.3880742153</v>
+        <v>785964.5073558036</v>
       </c>
     </row>
     <row r="13">
@@ -7918,28 +7918,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>547.4150950470181</v>
+        <v>632.7842993427653</v>
       </c>
       <c r="AB13" t="n">
-        <v>748.9974832928855</v>
+        <v>865.8033948338134</v>
       </c>
       <c r="AC13" t="n">
-        <v>677.5142147119818</v>
+        <v>783.1723339935702</v>
       </c>
       <c r="AD13" t="n">
-        <v>547415.0950470181</v>
+        <v>632784.2993427652</v>
       </c>
       <c r="AE13" t="n">
-        <v>748997.4832928855</v>
+        <v>865803.3948338134</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.103423126633996e-06</v>
+        <v>2.041621676369059e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>14</v>
+        <v>13.76953125</v>
       </c>
       <c r="AH13" t="n">
-        <v>677514.2147119818</v>
+        <v>783172.3339935702</v>
       </c>
     </row>
     <row r="14">
@@ -8024,28 +8024,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>542.820260018671</v>
+        <v>628.1894643144182</v>
       </c>
       <c r="AB14" t="n">
-        <v>742.710627297286</v>
+        <v>859.516538838214</v>
       </c>
       <c r="AC14" t="n">
-        <v>671.8273674289444</v>
+        <v>777.4854867105329</v>
       </c>
       <c r="AD14" t="n">
-        <v>542820.2600186709</v>
+        <v>628189.4643144181</v>
       </c>
       <c r="AE14" t="n">
-        <v>742710.6272972861</v>
+        <v>859516.538838214</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.107554573620949e-06</v>
+        <v>2.049265934967357e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>14</v>
+        <v>13.71744791666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>671827.3674289444</v>
+        <v>777485.4867105329</v>
       </c>
     </row>
     <row r="15">
@@ -8130,28 +8130,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>538.0195944924261</v>
+        <v>623.3887987881734</v>
       </c>
       <c r="AB15" t="n">
-        <v>736.1421449338623</v>
+        <v>852.9480564747902</v>
       </c>
       <c r="AC15" t="n">
-        <v>665.8857718033631</v>
+        <v>771.5438910849515</v>
       </c>
       <c r="AD15" t="n">
-        <v>538019.5944924261</v>
+        <v>623388.7987881734</v>
       </c>
       <c r="AE15" t="n">
-        <v>736142.1449338623</v>
+        <v>852948.0564747902</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.114020171447989e-06</v>
+        <v>2.061228983734185e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>13.63932291666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>665885.7718033631</v>
+        <v>771543.8910849515</v>
       </c>
     </row>
     <row r="16">
@@ -8236,28 +8236,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>536.1344154986569</v>
+        <v>621.5036197944041</v>
       </c>
       <c r="AB16" t="n">
-        <v>733.5627598663597</v>
+        <v>850.3686714072877</v>
       </c>
       <c r="AC16" t="n">
-        <v>663.5525596265134</v>
+        <v>769.2106789081017</v>
       </c>
       <c r="AD16" t="n">
-        <v>536134.4154986569</v>
+        <v>621503.6197944041</v>
       </c>
       <c r="AE16" t="n">
-        <v>733562.7598663596</v>
+        <v>850368.6714072877</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.113926805414385e-06</v>
+        <v>2.061056232127444e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>14</v>
+        <v>13.63932291666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>663552.5596265134</v>
+        <v>769210.6789081017</v>
       </c>
     </row>
     <row r="17">
@@ -8342,28 +8342,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>533.6234873268058</v>
+        <v>618.992691622553</v>
       </c>
       <c r="AB17" t="n">
-        <v>730.1271971673</v>
+        <v>846.933108708228</v>
       </c>
       <c r="AC17" t="n">
-        <v>660.4448822096095</v>
+        <v>766.1030014911978</v>
       </c>
       <c r="AD17" t="n">
-        <v>533623.4873268058</v>
+        <v>618992.691622553</v>
       </c>
       <c r="AE17" t="n">
-        <v>730127.1971673</v>
+        <v>846933.108708228</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.116657761897286e-06</v>
+        <v>2.066109216624623e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>14</v>
+        <v>13.60677083333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>660444.8822096095</v>
+        <v>766103.0014911979</v>
       </c>
     </row>
     <row r="18">
@@ -8448,28 +8448,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>530.0950721963292</v>
+        <v>615.4642764920762</v>
       </c>
       <c r="AB18" t="n">
-        <v>725.2994639230924</v>
+        <v>842.1053754640205</v>
       </c>
       <c r="AC18" t="n">
-        <v>656.0779010504627</v>
+        <v>761.7360203320512</v>
       </c>
       <c r="AD18" t="n">
-        <v>530095.0721963291</v>
+        <v>615464.2764920762</v>
       </c>
       <c r="AE18" t="n">
-        <v>725299.4639230923</v>
+        <v>842105.3754640205</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.120252354191019e-06</v>
+        <v>2.072760153484159e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>14</v>
+        <v>13.56770833333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>656077.9010504627</v>
+        <v>761736.0203320512</v>
       </c>
     </row>
     <row r="19">
@@ -8554,28 +8554,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>525.3906721394437</v>
+        <v>610.759876435191</v>
       </c>
       <c r="AB19" t="n">
-        <v>718.8626962217791</v>
+        <v>835.6686077627071</v>
       </c>
       <c r="AC19" t="n">
-        <v>650.2554494245026</v>
+        <v>755.9135687060909</v>
       </c>
       <c r="AD19" t="n">
-        <v>525390.6721394437</v>
+        <v>610759.876435191</v>
       </c>
       <c r="AE19" t="n">
-        <v>718862.6962217791</v>
+        <v>835668.607762707</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.123216725757929e-06</v>
+        <v>2.078245016998192e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>14</v>
+        <v>13.52864583333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>650255.4494245026</v>
+        <v>755913.5687060909</v>
       </c>
     </row>
     <row r="20">
@@ -8660,28 +8660,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>525.2479836356825</v>
+        <v>610.6171879314297</v>
       </c>
       <c r="AB20" t="n">
-        <v>718.6674635159604</v>
+        <v>835.4733750568885</v>
       </c>
       <c r="AC20" t="n">
-        <v>650.0788494541163</v>
+        <v>755.7369687357047</v>
       </c>
       <c r="AD20" t="n">
-        <v>525247.9836356825</v>
+        <v>610617.1879314297</v>
       </c>
       <c r="AE20" t="n">
-        <v>718667.4635159604</v>
+        <v>835473.3750568884</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.123753580451148e-06</v>
+        <v>2.079238338736954e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>14</v>
+        <v>13.52213541666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>650078.8494541163</v>
+        <v>755736.9687357048</v>
       </c>
     </row>
     <row r="21">
@@ -8766,28 +8766,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>520.206976796691</v>
+        <v>605.4055888918462</v>
       </c>
       <c r="AB21" t="n">
-        <v>711.7701355653264</v>
+        <v>828.3426353314075</v>
       </c>
       <c r="AC21" t="n">
-        <v>643.8397928026303</v>
+        <v>749.2867768015675</v>
       </c>
       <c r="AD21" t="n">
-        <v>520206.9767966911</v>
+        <v>605405.5888918461</v>
       </c>
       <c r="AE21" t="n">
-        <v>711770.1355653264</v>
+        <v>828342.6353314074</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.126554561459252e-06</v>
+        <v>2.084420886939189e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>14</v>
+        <v>13.48958333333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>643839.7928026303</v>
+        <v>749286.7768015675</v>
       </c>
     </row>
     <row r="22">
@@ -8872,28 +8872,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>519.9868642375269</v>
+        <v>605.1854763326819</v>
       </c>
       <c r="AB22" t="n">
-        <v>711.4689678511971</v>
+        <v>828.0414676172783</v>
       </c>
       <c r="AC22" t="n">
-        <v>643.567368112446</v>
+        <v>749.0143521113833</v>
       </c>
       <c r="AD22" t="n">
-        <v>519986.8642375269</v>
+        <v>605185.476332682</v>
       </c>
       <c r="AE22" t="n">
-        <v>711468.9678511971</v>
+        <v>828041.4676172782</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.126344487883644e-06</v>
+        <v>2.084032195824021e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>14</v>
+        <v>13.48958333333333</v>
       </c>
       <c r="AH22" t="n">
-        <v>643567.368112446</v>
+        <v>749014.3521113833</v>
       </c>
     </row>
     <row r="23">
@@ -8978,28 +8978,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>517.7214809952151</v>
+        <v>602.9200930903701</v>
       </c>
       <c r="AB23" t="n">
-        <v>708.369370557411</v>
+        <v>824.9418703234921</v>
       </c>
       <c r="AC23" t="n">
-        <v>640.7635920340668</v>
+        <v>746.2105760330041</v>
       </c>
       <c r="AD23" t="n">
-        <v>517721.4809952151</v>
+        <v>602920.0930903701</v>
       </c>
       <c r="AE23" t="n">
-        <v>708369.370557411</v>
+        <v>824941.8703234921</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.12597102374923e-06</v>
+        <v>2.083341189397057e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>14</v>
+        <v>13.49609375</v>
       </c>
       <c r="AH23" t="n">
-        <v>640763.5920340668</v>
+        <v>746210.5760330041</v>
       </c>
     </row>
     <row r="24">
@@ -9084,28 +9084,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>514.6295716069383</v>
+        <v>599.8281837020933</v>
       </c>
       <c r="AB24" t="n">
-        <v>704.1388837269557</v>
+        <v>820.7113834930366</v>
       </c>
       <c r="AC24" t="n">
-        <v>636.9368569291844</v>
+        <v>742.3838409281217</v>
       </c>
       <c r="AD24" t="n">
-        <v>514629.5716069383</v>
+        <v>599828.1837020933</v>
       </c>
       <c r="AE24" t="n">
-        <v>704138.8837269556</v>
+        <v>820711.3834930366</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.129799031126972e-06</v>
+        <v>2.090424005273446e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>14</v>
+        <v>13.45052083333333</v>
       </c>
       <c r="AH24" t="n">
-        <v>636936.8569291844</v>
+        <v>742383.8409281217</v>
       </c>
     </row>
     <row r="25">
@@ -9190,28 +9190,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>511.9163889437331</v>
+        <v>597.1150010388881</v>
       </c>
       <c r="AB25" t="n">
-        <v>700.4265875099869</v>
+        <v>816.9990872760681</v>
       </c>
       <c r="AC25" t="n">
-        <v>633.5788570529227</v>
+        <v>739.02584105186</v>
       </c>
       <c r="AD25" t="n">
-        <v>511916.3889437331</v>
+        <v>597115.0010388881</v>
       </c>
       <c r="AE25" t="n">
-        <v>700426.5875099869</v>
+        <v>816999.0872760681</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.130195836769786e-06</v>
+        <v>2.091158199602096e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>14</v>
+        <v>13.44401041666667</v>
       </c>
       <c r="AH25" t="n">
-        <v>633578.8570529227</v>
+        <v>739025.84105186</v>
       </c>
     </row>
     <row r="26">
@@ -9296,28 +9296,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>508.2856593298543</v>
+        <v>593.4842714250092</v>
       </c>
       <c r="AB26" t="n">
-        <v>695.4588630757921</v>
+        <v>812.0313628418731</v>
       </c>
       <c r="AC26" t="n">
-        <v>629.0852452664825</v>
+        <v>734.5322292654198</v>
       </c>
       <c r="AD26" t="n">
-        <v>508285.6593298543</v>
+        <v>593484.2714250092</v>
       </c>
       <c r="AE26" t="n">
-        <v>695458.8630757921</v>
+        <v>812031.3628418732</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.129495591517761e-06</v>
+        <v>2.089862562551537e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>14</v>
+        <v>13.45703125</v>
       </c>
       <c r="AH26" t="n">
-        <v>629085.2452664825</v>
+        <v>734532.2292654198</v>
       </c>
     </row>
     <row r="27">
@@ -9402,28 +9402,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>507.1216000980574</v>
+        <v>592.3202121932125</v>
       </c>
       <c r="AB27" t="n">
-        <v>693.8661458801786</v>
+        <v>810.4386456462596</v>
       </c>
       <c r="AC27" t="n">
-        <v>627.6445347646257</v>
+        <v>733.091518763563</v>
       </c>
       <c r="AD27" t="n">
-        <v>507121.6000980574</v>
+        <v>592320.2121932125</v>
       </c>
       <c r="AE27" t="n">
-        <v>693866.1458801785</v>
+        <v>810438.6456462597</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.132693378168679e-06</v>
+        <v>2.095779305082422e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>14</v>
+        <v>13.41796875</v>
       </c>
       <c r="AH27" t="n">
-        <v>627644.5347646257</v>
+        <v>733091.518763563</v>
       </c>
     </row>
     <row r="28">
@@ -9508,28 +9508,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>508.6079851956016</v>
+        <v>593.8065972907566</v>
       </c>
       <c r="AB28" t="n">
-        <v>695.899883545321</v>
+        <v>812.472383311402</v>
       </c>
       <c r="AC28" t="n">
-        <v>629.4841753613758</v>
+        <v>734.9311593603131</v>
       </c>
       <c r="AD28" t="n">
-        <v>508607.9851956016</v>
+        <v>593806.5972907566</v>
       </c>
       <c r="AE28" t="n">
-        <v>695899.8835453211</v>
+        <v>812472.3833114021</v>
       </c>
       <c r="AF28" t="n">
-        <v>1.132483304593071e-06</v>
+        <v>2.095390613967255e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>14</v>
+        <v>13.41796875</v>
       </c>
       <c r="AH28" t="n">
-        <v>629484.1753613758</v>
+        <v>734931.1593603131</v>
       </c>
     </row>
   </sheetData>
@@ -9805,28 +9805,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>840.8710579837509</v>
+        <v>958.5081793109234</v>
       </c>
       <c r="AB2" t="n">
-        <v>1150.516878146299</v>
+        <v>1311.473177329653</v>
       </c>
       <c r="AC2" t="n">
-        <v>1040.713162056596</v>
+        <v>1186.308017949475</v>
       </c>
       <c r="AD2" t="n">
-        <v>840871.0579837509</v>
+        <v>958508.1793109234</v>
       </c>
       <c r="AE2" t="n">
-        <v>1150516.878146299</v>
+        <v>1311473.177329653</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.968091613690818e-07</v>
+        <v>1.518841235038591e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.7265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1040713.162056596</v>
+        <v>1186308.017949475</v>
       </c>
     </row>
     <row r="3">
@@ -9911,28 +9911,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>639.7318010856477</v>
+        <v>733.756246801365</v>
       </c>
       <c r="AB3" t="n">
-        <v>875.3092732205702</v>
+        <v>1003.957667914604</v>
       </c>
       <c r="AC3" t="n">
-        <v>791.7709846886789</v>
+        <v>908.14135715227</v>
       </c>
       <c r="AD3" t="n">
-        <v>639731.8010856477</v>
+        <v>733756.2468013651</v>
       </c>
       <c r="AE3" t="n">
-        <v>875309.2732205702</v>
+        <v>1003957.667914604</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.805878979120099e-07</v>
+        <v>1.869151869902639e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.02864583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>791770.984688679</v>
+        <v>908141.3571522699</v>
       </c>
     </row>
     <row r="4">
@@ -10017,28 +10017,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>570.9333933789368</v>
+        <v>664.9577495861031</v>
       </c>
       <c r="AB4" t="n">
-        <v>781.1762566247121</v>
+        <v>909.8245288491973</v>
       </c>
       <c r="AC4" t="n">
-        <v>706.6218910802111</v>
+        <v>822.9921527625755</v>
       </c>
       <c r="AD4" t="n">
-        <v>570933.3933789368</v>
+        <v>664957.7495861031</v>
       </c>
       <c r="AE4" t="n">
-        <v>781176.2566247121</v>
+        <v>909824.5288491973</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.050491910826446e-06</v>
+        <v>2.002399706971542e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.96744791666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>706621.891080211</v>
+        <v>822992.1527625755</v>
       </c>
     </row>
     <row r="5">
@@ -10123,28 +10123,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>549.5670432715538</v>
+        <v>631.8277768545538</v>
       </c>
       <c r="AB5" t="n">
-        <v>751.9418737909502</v>
+        <v>864.4946385666486</v>
       </c>
       <c r="AC5" t="n">
-        <v>680.1775967133894</v>
+        <v>781.9884835876926</v>
       </c>
       <c r="AD5" t="n">
-        <v>549567.0432715537</v>
+        <v>631827.7768545538</v>
       </c>
       <c r="AE5" t="n">
-        <v>751941.8737909503</v>
+        <v>864494.6385666486</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.086880631884151e-06</v>
+        <v>2.071762225266131e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.46614583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>680177.5967133895</v>
+        <v>781988.4835876926</v>
       </c>
     </row>
     <row r="6">
@@ -10229,28 +10229,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>534.223639932436</v>
+        <v>616.484373515436</v>
       </c>
       <c r="AB6" t="n">
-        <v>730.9483524391875</v>
+        <v>843.5011172148857</v>
       </c>
       <c r="AC6" t="n">
-        <v>661.1876675748464</v>
+        <v>762.9985544491497</v>
       </c>
       <c r="AD6" t="n">
-        <v>534223.6399324359</v>
+        <v>616484.373515436</v>
       </c>
       <c r="AE6" t="n">
-        <v>730948.3524391875</v>
+        <v>843501.1172148857</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.112258565415437e-06</v>
+        <v>2.120136483214117e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.13411458333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>661187.6675748464</v>
+        <v>762998.5544491496</v>
       </c>
     </row>
     <row r="7">
@@ -10335,28 +10335,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>512.6330797916274</v>
+        <v>606.5720951442221</v>
       </c>
       <c r="AB7" t="n">
-        <v>701.4071955462446</v>
+        <v>829.9387006485322</v>
       </c>
       <c r="AC7" t="n">
-        <v>634.4658772344923</v>
+        <v>750.7305158849177</v>
       </c>
       <c r="AD7" t="n">
-        <v>512633.0797916275</v>
+        <v>606572.0951442221</v>
       </c>
       <c r="AE7" t="n">
-        <v>701407.1955462446</v>
+        <v>829938.7006485321</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.128122792180475e-06</v>
+        <v>2.150376147792448e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.93229166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>634465.8772344922</v>
+        <v>750730.5158849177</v>
       </c>
     </row>
     <row r="8">
@@ -10441,28 +10441,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>505.0702619059895</v>
+        <v>587.4162468350102</v>
       </c>
       <c r="AB8" t="n">
-        <v>691.0594144671375</v>
+        <v>803.7288238954849</v>
       </c>
       <c r="AC8" t="n">
-        <v>625.1056738583728</v>
+        <v>727.0220729833883</v>
       </c>
       <c r="AD8" t="n">
-        <v>505070.2619059895</v>
+        <v>587416.2468350101</v>
       </c>
       <c r="AE8" t="n">
-        <v>691059.4144671374</v>
+        <v>803728.8238954849</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.139350897881758e-06</v>
+        <v>2.171778650119577e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.79557291666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>625105.6738583728</v>
+        <v>727022.0729833883</v>
       </c>
     </row>
     <row r="9">
@@ -10547,28 +10547,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>499.0792387221723</v>
+        <v>581.4252236511929</v>
       </c>
       <c r="AB9" t="n">
-        <v>682.8622322417497</v>
+        <v>795.5316416700971</v>
       </c>
       <c r="AC9" t="n">
-        <v>617.6908191997586</v>
+        <v>719.607218324774</v>
       </c>
       <c r="AD9" t="n">
-        <v>499079.2387221723</v>
+        <v>581425.223651193</v>
       </c>
       <c r="AE9" t="n">
-        <v>682862.2322417496</v>
+        <v>795531.6416700971</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.147488256207204e-06</v>
+        <v>2.187289710945906e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.69791666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>617690.8191997586</v>
+        <v>719607.2183247739</v>
       </c>
     </row>
     <row r="10">
@@ -10653,28 +10653,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>493.8381805215197</v>
+        <v>576.1841654505404</v>
       </c>
       <c r="AB10" t="n">
-        <v>675.6911851924476</v>
+        <v>788.360594620795</v>
       </c>
       <c r="AC10" t="n">
-        <v>611.2041668162141</v>
+        <v>713.1205659412294</v>
       </c>
       <c r="AD10" t="n">
-        <v>493838.1805215197</v>
+        <v>576184.1654505404</v>
       </c>
       <c r="AE10" t="n">
-        <v>675691.1851924476</v>
+        <v>788360.594620795</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.154249266091847e-06</v>
+        <v>2.200177239228908e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.61979166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>611204.1668162141</v>
+        <v>713120.5659412295</v>
       </c>
     </row>
     <row r="11">
@@ -10759,28 +10759,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>489.4537380243214</v>
+        <v>571.799722953342</v>
       </c>
       <c r="AB11" t="n">
-        <v>669.6921975398293</v>
+        <v>782.3616069681767</v>
       </c>
       <c r="AC11" t="n">
-        <v>605.7777141255297</v>
+        <v>707.6941132505451</v>
       </c>
       <c r="AD11" t="n">
-        <v>489453.7380243214</v>
+        <v>571799.722953342</v>
       </c>
       <c r="AE11" t="n">
-        <v>669692.1975398293</v>
+        <v>782361.6069681767</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.159271730577582e-06</v>
+        <v>2.209750831667711e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.56119791666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>605777.7141255296</v>
+        <v>707694.1132505451</v>
       </c>
     </row>
     <row r="12">
@@ -10865,28 +10865,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>485.1954325596556</v>
+        <v>567.5414174886763</v>
       </c>
       <c r="AB12" t="n">
-        <v>663.8657961398951</v>
+        <v>776.5352055682425</v>
       </c>
       <c r="AC12" t="n">
-        <v>600.5073762977995</v>
+        <v>702.423775422815</v>
       </c>
       <c r="AD12" t="n">
-        <v>485195.4325596556</v>
+        <v>567541.4174886763</v>
       </c>
       <c r="AE12" t="n">
-        <v>663865.7961398951</v>
+        <v>776535.2055682426</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.162000280995313e-06</v>
+        <v>2.214951869867636e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13.52864583333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>600507.3762977995</v>
+        <v>702423.775422815</v>
       </c>
     </row>
     <row r="13">
@@ -10971,28 +10971,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>480.285161626496</v>
+        <v>562.4605543549245</v>
       </c>
       <c r="AB13" t="n">
-        <v>657.1473468232813</v>
+        <v>769.5833444767818</v>
       </c>
       <c r="AC13" t="n">
-        <v>594.4301263545605</v>
+        <v>696.1353901969248</v>
       </c>
       <c r="AD13" t="n">
-        <v>480285.161626496</v>
+        <v>562460.5543549245</v>
       </c>
       <c r="AE13" t="n">
-        <v>657147.3468232813</v>
+        <v>769583.3444767818</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.16774713939726e-06</v>
+        <v>2.225906268908189e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>14</v>
+        <v>13.46354166666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>594430.1263545605</v>
+        <v>696135.3901969248</v>
       </c>
     </row>
     <row r="14">
@@ -11077,28 +11077,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>475.656941090416</v>
+        <v>557.8323338188444</v>
       </c>
       <c r="AB14" t="n">
-        <v>650.8148113031369</v>
+        <v>763.2508089566375</v>
       </c>
       <c r="AC14" t="n">
-        <v>588.7019591366894</v>
+        <v>690.4072229790538</v>
       </c>
       <c r="AD14" t="n">
-        <v>475656.9410904159</v>
+        <v>557832.3338188444</v>
       </c>
       <c r="AE14" t="n">
-        <v>650814.811303137</v>
+        <v>763250.8089566375</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.171296669586697e-06</v>
+        <v>2.232672221256765e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>14</v>
+        <v>13.42447916666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>588701.9591366894</v>
+        <v>690407.2229790539</v>
       </c>
     </row>
     <row r="15">
@@ -11183,28 +11183,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>471.9759260922617</v>
+        <v>554.1513188206901</v>
       </c>
       <c r="AB15" t="n">
-        <v>645.7782841877419</v>
+        <v>758.2142818412423</v>
       </c>
       <c r="AC15" t="n">
-        <v>584.1461111003773</v>
+        <v>685.8513749427416</v>
       </c>
       <c r="AD15" t="n">
-        <v>471975.9260922617</v>
+        <v>554151.3188206902</v>
       </c>
       <c r="AE15" t="n">
-        <v>645778.2841877418</v>
+        <v>758214.2818412422</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.173832048293439e-06</v>
+        <v>2.237505044362891e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>13.39192708333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>584146.1111003773</v>
+        <v>685851.3749427416</v>
       </c>
     </row>
     <row r="16">
@@ -11289,28 +11289,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>468.6985402310572</v>
+        <v>550.8739329594857</v>
       </c>
       <c r="AB16" t="n">
-        <v>641.2940202643823</v>
+        <v>753.7300179178827</v>
       </c>
       <c r="AC16" t="n">
-        <v>580.0898190321592</v>
+        <v>681.7950828745235</v>
       </c>
       <c r="AD16" t="n">
-        <v>468698.5402310572</v>
+        <v>550873.9329594857</v>
       </c>
       <c r="AE16" t="n">
-        <v>641294.0202643824</v>
+        <v>753730.0179178828</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.173952780612807e-06</v>
+        <v>2.237735178796516e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>14</v>
+        <v>13.39192708333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>580089.8190321592</v>
+        <v>681795.0828745235</v>
       </c>
     </row>
     <row r="17">
@@ -11395,28 +11395,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>466.4394310707714</v>
+        <v>548.6148237991998</v>
       </c>
       <c r="AB17" t="n">
-        <v>638.203007446417</v>
+        <v>750.6390050999175</v>
       </c>
       <c r="AC17" t="n">
-        <v>577.2938081392768</v>
+        <v>678.9990719816411</v>
       </c>
       <c r="AD17" t="n">
-        <v>466439.4310707714</v>
+        <v>548614.8237991998</v>
       </c>
       <c r="AE17" t="n">
-        <v>638203.007446417</v>
+        <v>750639.0050999175</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.176946942133149e-06</v>
+        <v>2.243442512750417e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>14</v>
+        <v>13.359375</v>
       </c>
       <c r="AH17" t="n">
-        <v>577293.8081392768</v>
+        <v>678999.0719816411</v>
       </c>
     </row>
     <row r="18">
@@ -11501,28 +11501,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>461.2334716868992</v>
+        <v>543.4088644153277</v>
       </c>
       <c r="AB18" t="n">
-        <v>631.0799841466845</v>
+        <v>743.515981800185</v>
       </c>
       <c r="AC18" t="n">
-        <v>570.8505961860449</v>
+        <v>672.5558600284091</v>
       </c>
       <c r="AD18" t="n">
-        <v>461233.4716868992</v>
+        <v>543408.8644153277</v>
       </c>
       <c r="AE18" t="n">
-        <v>631079.9841466845</v>
+        <v>743515.9818001851</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.179627199623133e-06</v>
+        <v>2.248551497176894e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>14</v>
+        <v>13.32682291666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>570850.5961860449</v>
+        <v>672555.8600284092</v>
       </c>
     </row>
     <row r="19">
@@ -11607,28 +11607,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>459.8315694660124</v>
+        <v>542.0069621944408</v>
       </c>
       <c r="AB19" t="n">
-        <v>629.161839680506</v>
+        <v>741.5978373340066</v>
       </c>
       <c r="AC19" t="n">
-        <v>569.1155167355857</v>
+        <v>670.8207805779501</v>
       </c>
       <c r="AD19" t="n">
-        <v>459831.5694660124</v>
+        <v>542006.9621944408</v>
       </c>
       <c r="AE19" t="n">
-        <v>629161.839680506</v>
+        <v>741597.8373340066</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.179530613767638e-06</v>
+        <v>2.248367389629994e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>14</v>
+        <v>13.32682291666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>569115.5167355858</v>
+        <v>670820.7805779502</v>
       </c>
     </row>
     <row r="20">
@@ -11713,28 +11713,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>460.6478580419175</v>
+        <v>542.8232507703459</v>
       </c>
       <c r="AB20" t="n">
-        <v>630.2787217221697</v>
+        <v>742.7147193756701</v>
       </c>
       <c r="AC20" t="n">
-        <v>570.1258051227469</v>
+        <v>671.8310689651112</v>
       </c>
       <c r="AD20" t="n">
-        <v>460647.8580419174</v>
+        <v>542823.2507703459</v>
       </c>
       <c r="AE20" t="n">
-        <v>630278.7217221698</v>
+        <v>742714.7193756702</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.178951098634669e-06</v>
+        <v>2.247262744348593e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>14</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>570125.8051227469</v>
+        <v>671831.0689651112</v>
       </c>
     </row>
   </sheetData>
@@ -12010,28 +12010,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>454.7046155494244</v>
+        <v>538.4121554789513</v>
       </c>
       <c r="AB2" t="n">
-        <v>622.1469151465869</v>
+        <v>736.6792641941945</v>
       </c>
       <c r="AC2" t="n">
-        <v>562.7700867536755</v>
+        <v>666.3716291553409</v>
       </c>
       <c r="AD2" t="n">
-        <v>454704.6155494244</v>
+        <v>538412.1554789513</v>
       </c>
       <c r="AE2" t="n">
-        <v>622146.915146587</v>
+        <v>736679.2641941945</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.130567558037048e-06</v>
+        <v>2.407813025771585e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.51432291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>562770.0867536755</v>
+        <v>666371.6291553408</v>
       </c>
     </row>
     <row r="3">
@@ -12116,28 +12116,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>394.8274134082744</v>
+        <v>467.98625950059</v>
       </c>
       <c r="AB3" t="n">
-        <v>540.2202855813415</v>
+        <v>640.3194463453489</v>
       </c>
       <c r="AC3" t="n">
-        <v>488.6624197293904</v>
+        <v>579.2082570801354</v>
       </c>
       <c r="AD3" t="n">
-        <v>394827.4134082744</v>
+        <v>467986.25950059</v>
       </c>
       <c r="AE3" t="n">
-        <v>540220.2855813415</v>
+        <v>640319.4463453488</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.252165541579021e-06</v>
+        <v>2.666784908166894e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.01041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>488662.4197293904</v>
+        <v>579208.2570801354</v>
       </c>
     </row>
     <row r="4">
@@ -12222,28 +12222,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>365.5648360349977</v>
+        <v>438.8089334733338</v>
       </c>
       <c r="AB4" t="n">
-        <v>500.1819362454231</v>
+        <v>600.3977416620797</v>
       </c>
       <c r="AC4" t="n">
-        <v>452.4452742599155</v>
+        <v>543.0966238613729</v>
       </c>
       <c r="AD4" t="n">
-        <v>365564.8360349977</v>
+        <v>438808.9334733338</v>
       </c>
       <c r="AE4" t="n">
-        <v>500181.936245423</v>
+        <v>600397.7416620797</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.29511417569511e-06</v>
+        <v>2.75825425905059e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.54166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>452445.2742599156</v>
+        <v>543096.6238613729</v>
       </c>
     </row>
     <row r="5">
@@ -12328,28 +12328,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>353.5714512718671</v>
+        <v>426.6449565096112</v>
       </c>
       <c r="AB5" t="n">
-        <v>483.772058101715</v>
+        <v>583.7544517435247</v>
       </c>
       <c r="AC5" t="n">
-        <v>437.6015318548345</v>
+        <v>528.0417461736406</v>
       </c>
       <c r="AD5" t="n">
-        <v>353571.4512718671</v>
+        <v>426644.9565096112</v>
       </c>
       <c r="AE5" t="n">
-        <v>483772.058101715</v>
+        <v>583754.4517435246</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.317935689557297e-06</v>
+        <v>2.806858111119907e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.30729166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>437601.5318548345</v>
+        <v>528041.7461736406</v>
       </c>
     </row>
     <row r="6">
@@ -12434,28 +12434,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>344.310631886993</v>
+        <v>407.0913763426894</v>
       </c>
       <c r="AB6" t="n">
-        <v>471.1009964608135</v>
+        <v>557.0003807160676</v>
       </c>
       <c r="AC6" t="n">
-        <v>426.1397785529939</v>
+        <v>503.8410461354696</v>
       </c>
       <c r="AD6" t="n">
-        <v>344310.631886993</v>
+        <v>407091.3763426894</v>
       </c>
       <c r="AE6" t="n">
-        <v>471100.9964608135</v>
+        <v>557000.3807160676</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.329386862392515e-06</v>
+        <v>2.83124611245339e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.19661458333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>426139.7785529939</v>
+        <v>503841.0461354696</v>
       </c>
     </row>
     <row r="7">
@@ -12540,28 +12540,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>344.6691266150128</v>
+        <v>407.4498710707092</v>
       </c>
       <c r="AB7" t="n">
-        <v>471.5915047633613</v>
+        <v>557.4908890186155</v>
       </c>
       <c r="AC7" t="n">
-        <v>426.5834734315793</v>
+        <v>504.284741014055</v>
       </c>
       <c r="AD7" t="n">
-        <v>344669.1266150128</v>
+        <v>407449.8710707092</v>
       </c>
       <c r="AE7" t="n">
-        <v>471591.5047633614</v>
+        <v>557490.8890186155</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.330249068347166e-06</v>
+        <v>2.833082385494969e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.18359375</v>
       </c>
       <c r="AH7" t="n">
-        <v>426583.4734315793</v>
+        <v>504284.741014055</v>
       </c>
     </row>
   </sheetData>
@@ -12837,28 +12837,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>571.2393007679715</v>
+        <v>669.9001243292031</v>
       </c>
       <c r="AB2" t="n">
-        <v>781.5948126100708</v>
+        <v>916.5869040148916</v>
       </c>
       <c r="AC2" t="n">
-        <v>707.0005006697742</v>
+        <v>829.109136333509</v>
       </c>
       <c r="AD2" t="n">
-        <v>571239.3007679714</v>
+        <v>669900.124329203</v>
       </c>
       <c r="AE2" t="n">
-        <v>781594.8126100708</v>
+        <v>916586.9040148916</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.992998107469677e-07</v>
+        <v>2.028924105401005e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.79036458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>707000.5006697741</v>
+        <v>829109.136333509</v>
       </c>
     </row>
     <row r="3">
@@ -12943,28 +12943,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>471.4094181833112</v>
+        <v>559.0984456983424</v>
       </c>
       <c r="AB3" t="n">
-        <v>645.003163074151</v>
+        <v>764.9831590870806</v>
       </c>
       <c r="AC3" t="n">
-        <v>583.4449664579781</v>
+        <v>691.974240044416</v>
       </c>
       <c r="AD3" t="n">
-        <v>471409.4181833112</v>
+        <v>559098.4456983424</v>
       </c>
       <c r="AE3" t="n">
-        <v>645003.1630741509</v>
+        <v>764983.1590870806</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.144446767884715e-06</v>
+        <v>2.323622610289394e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.66145833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>583444.9664579781</v>
+        <v>691974.2400444159</v>
       </c>
     </row>
     <row r="4">
@@ -13049,28 +13049,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>434.5776390119821</v>
+        <v>522.1813256724416</v>
       </c>
       <c r="AB4" t="n">
-        <v>594.6082979085213</v>
+        <v>714.4715267992533</v>
       </c>
       <c r="AC4" t="n">
-        <v>537.8597164941187</v>
+        <v>646.2833670486177</v>
       </c>
       <c r="AD4" t="n">
-        <v>434577.6390119821</v>
+        <v>522181.3256724416</v>
       </c>
       <c r="AE4" t="n">
-        <v>594608.2979085213</v>
+        <v>714471.5267992533</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.199556729589652e-06</v>
+        <v>2.435514885809084e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.99088541666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>537859.7164941188</v>
+        <v>646283.3670486177</v>
       </c>
     </row>
     <row r="5">
@@ -13155,28 +13155,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>420.9121354521199</v>
+        <v>497.7147077755222</v>
       </c>
       <c r="AB5" t="n">
-        <v>575.9105530584498</v>
+        <v>680.9952208016863</v>
       </c>
       <c r="AC5" t="n">
-        <v>520.9464581700884</v>
+        <v>616.0019927111679</v>
       </c>
       <c r="AD5" t="n">
-        <v>420912.1354521199</v>
+        <v>497714.7077755223</v>
       </c>
       <c r="AE5" t="n">
-        <v>575910.5530584498</v>
+        <v>680995.2208016863</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.226750840720947e-06</v>
+        <v>2.490728333270858e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.67838541666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>520946.4581700884</v>
+        <v>616001.9927111679</v>
       </c>
     </row>
     <row r="6">
@@ -13261,28 +13261,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>410.4187621578494</v>
+        <v>487.0507422806596</v>
       </c>
       <c r="AB6" t="n">
-        <v>561.5530567822715</v>
+        <v>666.4043127506609</v>
       </c>
       <c r="AC6" t="n">
-        <v>507.959221187636</v>
+        <v>602.8036204460644</v>
       </c>
       <c r="AD6" t="n">
-        <v>410418.7621578494</v>
+        <v>487050.7422806596</v>
       </c>
       <c r="AE6" t="n">
-        <v>561553.0567822715</v>
+        <v>666404.3127506609</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.244459233467108e-06</v>
+        <v>2.526682492897624e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.48307291666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>507959.221187636</v>
+        <v>602803.6204460644</v>
       </c>
     </row>
     <row r="7">
@@ -13367,28 +13367,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>403.4520878280218</v>
+        <v>480.0840679508321</v>
       </c>
       <c r="AB7" t="n">
-        <v>552.0209456162215</v>
+        <v>656.8722015846109</v>
       </c>
       <c r="AC7" t="n">
-        <v>499.3368413328718</v>
+        <v>594.1812405913001</v>
       </c>
       <c r="AD7" t="n">
-        <v>403452.0878280218</v>
+        <v>480084.0679508321</v>
       </c>
       <c r="AE7" t="n">
-        <v>552020.9456162215</v>
+        <v>656872.201584611</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.253738740583001e-06</v>
+        <v>2.545523100562306e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.38541666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>499336.8413328718</v>
+        <v>594181.2405913002</v>
       </c>
     </row>
     <row r="8">
@@ -13473,28 +13473,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>396.6636486816079</v>
+        <v>473.2956288044181</v>
       </c>
       <c r="AB8" t="n">
-        <v>542.7327036912995</v>
+        <v>647.583959659689</v>
       </c>
       <c r="AC8" t="n">
-        <v>490.9350561811349</v>
+        <v>585.7794554395633</v>
       </c>
       <c r="AD8" t="n">
-        <v>396663.6486816079</v>
+        <v>473295.6288044181</v>
       </c>
       <c r="AE8" t="n">
-        <v>542732.7036912995</v>
+        <v>647583.959659689</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.261394333953612e-06</v>
+        <v>2.561066601885668e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.30078125</v>
       </c>
       <c r="AH8" t="n">
-        <v>490935.0561811349</v>
+        <v>585779.4554395634</v>
       </c>
     </row>
     <row r="9">
@@ -13579,28 +13579,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>389.4171560661965</v>
+        <v>466.0491361890067</v>
       </c>
       <c r="AB9" t="n">
-        <v>532.8177328022022</v>
+        <v>637.6689887705916</v>
       </c>
       <c r="AC9" t="n">
-        <v>481.966356197944</v>
+        <v>576.8107554563724</v>
       </c>
       <c r="AD9" t="n">
-        <v>389417.1560661965</v>
+        <v>466049.1361890067</v>
       </c>
       <c r="AE9" t="n">
-        <v>532817.7328022021</v>
+        <v>637668.9887705916</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.267090920266423e-06</v>
+        <v>2.572632641590931e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.2421875</v>
       </c>
       <c r="AH9" t="n">
-        <v>481966.356197944</v>
+        <v>576810.7554563724</v>
       </c>
     </row>
     <row r="10">
@@ -13685,28 +13685,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>385.6885952626474</v>
+        <v>451.5194610484005</v>
       </c>
       <c r="AB10" t="n">
-        <v>527.7161514182928</v>
+        <v>617.7888462391868</v>
       </c>
       <c r="AC10" t="n">
-        <v>477.3516625812005</v>
+        <v>558.8279458262095</v>
       </c>
       <c r="AD10" t="n">
-        <v>385688.5952626474</v>
+        <v>451519.4610484005</v>
       </c>
       <c r="AE10" t="n">
-        <v>527716.1514182929</v>
+        <v>617788.8462391868</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.271653344598404e-06</v>
+        <v>2.581895940359399e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.19661458333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>477351.6625812005</v>
+        <v>558827.9458262095</v>
       </c>
     </row>
     <row r="11">
@@ -13791,28 +13791,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>387.0577501076074</v>
+        <v>452.8886158933607</v>
       </c>
       <c r="AB11" t="n">
-        <v>529.589489480016</v>
+        <v>619.66218430091</v>
       </c>
       <c r="AC11" t="n">
-        <v>479.0462118875593</v>
+        <v>560.5224951325683</v>
       </c>
       <c r="AD11" t="n">
-        <v>387057.7501076075</v>
+        <v>452888.6158933607</v>
       </c>
       <c r="AE11" t="n">
-        <v>529589.4894800161</v>
+        <v>619662.18430091</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.271524462555127e-06</v>
+        <v>2.581634265252945e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.19661458333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>479046.2118875593</v>
+        <v>560522.4951325683</v>
       </c>
     </row>
   </sheetData>
@@ -14088,28 +14088,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>372.6166452638248</v>
+        <v>452.9032107852011</v>
       </c>
       <c r="AB2" t="n">
-        <v>509.8305327361707</v>
+        <v>619.6821536758072</v>
       </c>
       <c r="AC2" t="n">
-        <v>461.1730222434766</v>
+        <v>560.5405586583524</v>
       </c>
       <c r="AD2" t="n">
-        <v>372616.6452638247</v>
+        <v>452903.2107852011</v>
       </c>
       <c r="AE2" t="n">
-        <v>509830.5327361707</v>
+        <v>619682.1536758072</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.238131937532679e-06</v>
+        <v>2.75707798795182e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.71354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>461173.0222434766</v>
+        <v>560540.5586583525</v>
       </c>
     </row>
     <row r="3">
@@ -14194,28 +14194,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>327.0695893452229</v>
+        <v>397.3950074241773</v>
       </c>
       <c r="AB3" t="n">
-        <v>447.5110414340485</v>
+        <v>543.7333809881535</v>
       </c>
       <c r="AC3" t="n">
-        <v>404.8012157252736</v>
+        <v>491.8402302412365</v>
       </c>
       <c r="AD3" t="n">
-        <v>327069.5893452229</v>
+        <v>397395.0074241773</v>
       </c>
       <c r="AE3" t="n">
-        <v>447511.0414340486</v>
+        <v>543733.3809881535</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.340551711323381e-06</v>
+        <v>2.985146819139608e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.58723958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>404801.2157252736</v>
+        <v>491840.2302412365</v>
       </c>
     </row>
     <row r="4">
@@ -14300,28 +14300,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>311.3401161100708</v>
+        <v>381.494941988433</v>
       </c>
       <c r="AB4" t="n">
-        <v>425.9892822183299</v>
+        <v>521.9782099975877</v>
       </c>
       <c r="AC4" t="n">
-        <v>385.3334630031243</v>
+        <v>472.1613422364361</v>
       </c>
       <c r="AD4" t="n">
-        <v>311340.1161100708</v>
+        <v>381494.941988433</v>
       </c>
       <c r="AE4" t="n">
-        <v>425989.2822183299</v>
+        <v>521978.2099975877</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.373264475137952e-06</v>
+        <v>3.057991754565434e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.26822916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>385333.4630031243</v>
+        <v>472161.3422364361</v>
       </c>
     </row>
     <row r="5">
@@ -14406,28 +14406,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>311.3364864016688</v>
+        <v>381.4913122800309</v>
       </c>
       <c r="AB5" t="n">
-        <v>425.9843158911627</v>
+        <v>521.9732436704206</v>
       </c>
       <c r="AC5" t="n">
-        <v>385.3289706552517</v>
+        <v>472.1568498885634</v>
       </c>
       <c r="AD5" t="n">
-        <v>311336.4864016687</v>
+        <v>381491.3122800309</v>
       </c>
       <c r="AE5" t="n">
-        <v>425984.3158911627</v>
+        <v>521973.2436704206</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.375223323270561e-06</v>
+        <v>3.062353726746621e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.24869791666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>385328.9706552518</v>
+        <v>472156.8498885634</v>
       </c>
     </row>
   </sheetData>
@@ -14703,28 +14703,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>897.7213764588154</v>
+        <v>1016.408428388713</v>
       </c>
       <c r="AB2" t="n">
-        <v>1228.301991942924</v>
+        <v>1390.694852496595</v>
       </c>
       <c r="AC2" t="n">
-        <v>1111.074573764564</v>
+        <v>1257.968887626804</v>
       </c>
       <c r="AD2" t="n">
-        <v>897721.3764588154</v>
+        <v>1016408.428388713</v>
       </c>
       <c r="AE2" t="n">
-        <v>1228301.991942924</v>
+        <v>1390694.852496595</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.678037954611275e-07</v>
+        <v>1.451735521088613e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.29296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1111074.573764564</v>
+        <v>1257968.887626804</v>
       </c>
     </row>
     <row r="3">
@@ -14809,28 +14809,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>664.4666837828128</v>
+        <v>759.399275057527</v>
       </c>
       <c r="AB3" t="n">
-        <v>909.1526309528412</v>
+        <v>1039.043590465249</v>
       </c>
       <c r="AC3" t="n">
-        <v>822.3843798584329</v>
+        <v>939.8787284980831</v>
       </c>
       <c r="AD3" t="n">
-        <v>664466.6837828128</v>
+        <v>759399.275057527</v>
       </c>
       <c r="AE3" t="n">
-        <v>909152.6309528411</v>
+        <v>1039043.590465249</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.575651897766151e-07</v>
+        <v>1.810529471167547e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.26953125</v>
       </c>
       <c r="AH3" t="n">
-        <v>822384.3798584329</v>
+        <v>939878.7284980831</v>
       </c>
     </row>
     <row r="4">
@@ -14915,28 +14915,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>603.7878789116039</v>
+        <v>686.9285807132979</v>
       </c>
       <c r="AB4" t="n">
-        <v>826.1292131681129</v>
+        <v>939.885989282086</v>
       </c>
       <c r="AC4" t="n">
-        <v>747.2846005429803</v>
+        <v>850.1845896032739</v>
       </c>
       <c r="AD4" t="n">
-        <v>603787.8789116039</v>
+        <v>686928.5807132979</v>
       </c>
       <c r="AE4" t="n">
-        <v>826129.2131681129</v>
+        <v>939885.989282086</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.029162427076986e-06</v>
+        <v>1.945902926228856e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.13671875</v>
       </c>
       <c r="AH4" t="n">
-        <v>747284.6005429804</v>
+        <v>850184.5896032739</v>
       </c>
     </row>
     <row r="5">
@@ -15021,28 +15021,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>566.2706937284886</v>
+        <v>661.2031954946517</v>
       </c>
       <c r="AB5" t="n">
-        <v>774.7965452591781</v>
+        <v>904.6873823020371</v>
       </c>
       <c r="AC5" t="n">
-        <v>700.8510504134223</v>
+        <v>818.3452882718459</v>
       </c>
       <c r="AD5" t="n">
-        <v>566270.6937284886</v>
+        <v>661203.1954946517</v>
       </c>
       <c r="AE5" t="n">
-        <v>774796.545259178</v>
+        <v>904687.3823020371</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.07032126670153e-06</v>
+        <v>2.023724564833618e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.55729166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>700851.0504134223</v>
+        <v>818345.2882718459</v>
       </c>
     </row>
     <row r="6">
@@ -15127,28 +15127,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>551.5850073186343</v>
+        <v>634.6403682657565</v>
       </c>
       <c r="AB6" t="n">
-        <v>754.7029412264565</v>
+        <v>868.3429502182319</v>
       </c>
       <c r="AC6" t="n">
-        <v>682.6751517480334</v>
+        <v>785.4695177763881</v>
       </c>
       <c r="AD6" t="n">
-        <v>551585.0073186343</v>
+        <v>634640.3682657565</v>
       </c>
       <c r="AE6" t="n">
-        <v>754702.9412264564</v>
+        <v>868342.9502182319</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.094370472412383e-06</v>
+        <v>2.069195929250936e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.23828125</v>
       </c>
       <c r="AH6" t="n">
-        <v>682675.1517480334</v>
+        <v>785469.5177763881</v>
       </c>
     </row>
     <row r="7">
@@ -15233,28 +15233,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>543.5165119867592</v>
+        <v>626.5718729338813</v>
       </c>
       <c r="AB7" t="n">
-        <v>743.6632699564932</v>
+        <v>857.3032789482686</v>
       </c>
       <c r="AC7" t="n">
-        <v>672.6890912097994</v>
+        <v>775.4834572381542</v>
       </c>
       <c r="AD7" t="n">
-        <v>543516.5119867591</v>
+        <v>626571.8729338814</v>
       </c>
       <c r="AE7" t="n">
-        <v>743663.2699564932</v>
+        <v>857303.2789482686</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.106813842531432e-06</v>
+        <v>2.09272340138726e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.07552083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>672689.0912097994</v>
+        <v>775483.4572381541</v>
       </c>
     </row>
     <row r="8">
@@ -15339,28 +15339,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>522.1676106779423</v>
+        <v>617.0147715895338</v>
       </c>
       <c r="AB8" t="n">
-        <v>714.4527613387164</v>
+        <v>844.2268312593779</v>
       </c>
       <c r="AC8" t="n">
-        <v>646.266392537297</v>
+        <v>763.6550073637816</v>
       </c>
       <c r="AD8" t="n">
-        <v>522167.6106779423</v>
+        <v>617014.7715895338</v>
       </c>
       <c r="AE8" t="n">
-        <v>714452.7613387164</v>
+        <v>844226.831259378</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.121482661537156e-06</v>
+        <v>2.120458671424887e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.89322916666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>646266.392537297</v>
+        <v>763655.0073637816</v>
       </c>
     </row>
     <row r="9">
@@ -15445,28 +15445,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>516.5652568143439</v>
+        <v>599.7058691074867</v>
       </c>
       <c r="AB9" t="n">
-        <v>706.7873736241321</v>
+        <v>820.5440272685569</v>
       </c>
       <c r="AC9" t="n">
-        <v>639.3325786677534</v>
+        <v>742.2324569468202</v>
       </c>
       <c r="AD9" t="n">
-        <v>516565.2568143439</v>
+        <v>599705.8691074867</v>
       </c>
       <c r="AE9" t="n">
-        <v>706787.3736241321</v>
+        <v>820544.0272685569</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.129187979187798e-06</v>
+        <v>2.135027606093918e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.79557291666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>639332.5786677534</v>
+        <v>742232.4569468203</v>
       </c>
     </row>
     <row r="10">
@@ -15551,28 +15551,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>511.5155819648541</v>
+        <v>594.656194257997</v>
       </c>
       <c r="AB10" t="n">
-        <v>699.8781857191287</v>
+        <v>813.6348393635533</v>
       </c>
       <c r="AC10" t="n">
-        <v>633.0827939592972</v>
+        <v>735.9826722383641</v>
       </c>
       <c r="AD10" t="n">
-        <v>511515.581964854</v>
+        <v>594656.194257997</v>
       </c>
       <c r="AE10" t="n">
-        <v>699878.1857191287</v>
+        <v>813634.8393635533</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.135218227783952e-06</v>
+        <v>2.14642938105229e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.72395833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>633082.7939592972</v>
+        <v>735982.6722383641</v>
       </c>
     </row>
     <row r="11">
@@ -15657,28 +15657,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>506.3544972283935</v>
+        <v>589.4951095215365</v>
       </c>
       <c r="AB11" t="n">
-        <v>692.8165618917146</v>
+        <v>806.5732155361392</v>
       </c>
       <c r="AC11" t="n">
-        <v>626.6951215989203</v>
+        <v>729.5949998779872</v>
       </c>
       <c r="AD11" t="n">
-        <v>506354.4972283936</v>
+        <v>589495.1095215365</v>
       </c>
       <c r="AE11" t="n">
-        <v>692816.5618917146</v>
+        <v>806573.2155361392</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.141535631075161e-06</v>
+        <v>2.158374097675347e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.64583333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>626695.1215989203</v>
+        <v>729594.9998779872</v>
       </c>
     </row>
     <row r="12">
@@ -15763,28 +15763,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>501.0768443394774</v>
+        <v>584.2174566326203</v>
       </c>
       <c r="AB12" t="n">
-        <v>685.5954443754865</v>
+        <v>799.3520980199112</v>
       </c>
       <c r="AC12" t="n">
-        <v>620.163177403539</v>
+        <v>723.063055682606</v>
       </c>
       <c r="AD12" t="n">
-        <v>501076.8443394774</v>
+        <v>584217.4566326203</v>
       </c>
       <c r="AE12" t="n">
-        <v>685595.4443754866</v>
+        <v>799352.0980199112</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.147685527460922e-06</v>
+        <v>2.170002098327338e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13.57421875</v>
       </c>
       <c r="AH12" t="n">
-        <v>620163.177403539</v>
+        <v>723063.0556826059</v>
       </c>
     </row>
     <row r="13">
@@ -15869,28 +15869,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>497.4201143879869</v>
+        <v>580.5607266811298</v>
       </c>
       <c r="AB13" t="n">
-        <v>680.5921451323175</v>
+        <v>794.3487987767421</v>
       </c>
       <c r="AC13" t="n">
-        <v>615.6373860179633</v>
+        <v>718.5372642970303</v>
       </c>
       <c r="AD13" t="n">
-        <v>497420.1143879869</v>
+        <v>580560.7266811299</v>
       </c>
       <c r="AE13" t="n">
-        <v>680592.1451323174</v>
+        <v>794348.7987767421</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.151251031591188e-06</v>
+        <v>2.176743623997169e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>14</v>
+        <v>13.53515625</v>
       </c>
       <c r="AH13" t="n">
-        <v>615637.3860179633</v>
+        <v>718537.2642970303</v>
       </c>
     </row>
     <row r="14">
@@ -15975,28 +15975,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>494.0495203318767</v>
+        <v>577.1901326250196</v>
       </c>
       <c r="AB14" t="n">
-        <v>675.9803496446323</v>
+        <v>789.7370032890572</v>
       </c>
       <c r="AC14" t="n">
-        <v>611.4657338189273</v>
+        <v>714.3656120979942</v>
       </c>
       <c r="AD14" t="n">
-        <v>494049.5203318767</v>
+        <v>577190.1326250196</v>
       </c>
       <c r="AE14" t="n">
-        <v>675980.3496446323</v>
+        <v>789737.0032890572</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.153715776057076e-06</v>
+        <v>2.18140387328571e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>14</v>
+        <v>13.50260416666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>611465.7338189273</v>
+        <v>714365.6120979942</v>
       </c>
     </row>
     <row r="15">
@@ -16081,28 +16081,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>490.2035555994988</v>
+        <v>573.1735756920494</v>
       </c>
       <c r="AB15" t="n">
-        <v>670.7181310258037</v>
+        <v>784.2413728953815</v>
       </c>
       <c r="AC15" t="n">
-        <v>606.7057339595095</v>
+        <v>709.3944769559254</v>
       </c>
       <c r="AD15" t="n">
-        <v>490203.5555994988</v>
+        <v>573173.5756920495</v>
       </c>
       <c r="AE15" t="n">
-        <v>670718.1310258037</v>
+        <v>784241.3728953814</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.156587323007626e-06</v>
+        <v>2.186833289932554e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>13.47005208333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>606705.7339595095</v>
+        <v>709394.4769559253</v>
       </c>
     </row>
     <row r="16">
@@ -16187,28 +16187,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>486.2886809978483</v>
+        <v>569.258701090399</v>
       </c>
       <c r="AB16" t="n">
-        <v>665.3616268837475</v>
+        <v>778.8848687533252</v>
       </c>
       <c r="AC16" t="n">
-        <v>601.8604470548702</v>
+        <v>704.5491900512861</v>
       </c>
       <c r="AD16" t="n">
-        <v>486288.6809978483</v>
+        <v>569258.7010903989</v>
       </c>
       <c r="AE16" t="n">
-        <v>665361.6268837475</v>
+        <v>778884.8687533252</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.159698165537388e-06</v>
+        <v>2.192715157966635e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>14</v>
+        <v>13.43098958333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>601860.4470548702</v>
+        <v>704549.1900512861</v>
       </c>
     </row>
     <row r="17">
@@ -16293,28 +16293,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>481.8656012208027</v>
+        <v>564.8356213133533</v>
       </c>
       <c r="AB17" t="n">
-        <v>659.3097740002856</v>
+        <v>772.8330158698633</v>
       </c>
       <c r="AC17" t="n">
-        <v>596.3861745167771</v>
+        <v>699.0749175131931</v>
       </c>
       <c r="AD17" t="n">
-        <v>481865.6012208026</v>
+        <v>564835.6213133533</v>
       </c>
       <c r="AE17" t="n">
-        <v>659309.7740002857</v>
+        <v>772833.0158698633</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.162569712487937e-06</v>
+        <v>2.198144574613479e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>14</v>
+        <v>13.3984375</v>
       </c>
       <c r="AH17" t="n">
-        <v>596386.1745167772</v>
+        <v>699074.9175131931</v>
       </c>
     </row>
     <row r="18">
@@ -16399,28 +16399,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>480.7374124526589</v>
+        <v>563.7074325452095</v>
       </c>
       <c r="AB18" t="n">
-        <v>657.7661363555355</v>
+        <v>771.2893782251133</v>
       </c>
       <c r="AC18" t="n">
-        <v>594.989859482333</v>
+        <v>697.6786024787489</v>
       </c>
       <c r="AD18" t="n">
-        <v>480737.4124526589</v>
+        <v>563707.4325452095</v>
       </c>
       <c r="AE18" t="n">
-        <v>657766.1363555356</v>
+        <v>771289.3782251133</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.162641501161701e-06</v>
+        <v>2.19828031002965e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>14</v>
+        <v>13.3984375</v>
       </c>
       <c r="AH18" t="n">
-        <v>594989.8594823331</v>
+        <v>697678.6024787489</v>
       </c>
     </row>
     <row r="19">
@@ -16505,28 +16505,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>476.1760229656641</v>
+        <v>559.1460430582147</v>
       </c>
       <c r="AB19" t="n">
-        <v>651.5250420251276</v>
+        <v>765.0482838947053</v>
       </c>
       <c r="AC19" t="n">
-        <v>589.3444064353881</v>
+        <v>692.0331494318041</v>
       </c>
       <c r="AD19" t="n">
-        <v>476176.022965664</v>
+        <v>559146.0430582147</v>
       </c>
       <c r="AE19" t="n">
-        <v>651525.0420251276</v>
+        <v>765048.2838947052</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.165345541206802e-06</v>
+        <v>2.203393010705428e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>14</v>
+        <v>13.36588541666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>589344.4064353881</v>
+        <v>692033.1494318041</v>
       </c>
     </row>
     <row r="20">
@@ -16611,28 +16611,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>473.9778175126251</v>
+        <v>556.9478376051758</v>
       </c>
       <c r="AB20" t="n">
-        <v>648.5173603462995</v>
+        <v>762.0406022158772</v>
       </c>
       <c r="AC20" t="n">
-        <v>586.6237736746798</v>
+        <v>689.3125166710958</v>
       </c>
       <c r="AD20" t="n">
-        <v>473977.8175126251</v>
+        <v>556947.8376051758</v>
       </c>
       <c r="AE20" t="n">
-        <v>648517.3603462995</v>
+        <v>762040.6022158773</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.165034456953826e-06</v>
+        <v>2.20280482390202e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>14</v>
+        <v>13.37239583333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>586623.7736746798</v>
+        <v>689312.5166710957</v>
       </c>
     </row>
     <row r="21">
@@ -16717,28 +16717,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>470.4234223020457</v>
+        <v>553.3934423945963</v>
       </c>
       <c r="AB21" t="n">
-        <v>643.654080010335</v>
+        <v>757.1773218799126</v>
       </c>
       <c r="AC21" t="n">
-        <v>582.2246379883229</v>
+        <v>684.9133809847388</v>
       </c>
       <c r="AD21" t="n">
-        <v>470423.4223020456</v>
+        <v>553393.4423945963</v>
       </c>
       <c r="AE21" t="n">
-        <v>643654.080010335</v>
+        <v>757177.3218799126</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.168647820199934e-06</v>
+        <v>2.209636839849299e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>14</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>582224.6379883229</v>
+        <v>684913.3809847387</v>
       </c>
     </row>
     <row r="22">
@@ -16823,28 +16823,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>472.0219877348316</v>
+        <v>554.9920078273823</v>
       </c>
       <c r="AB22" t="n">
-        <v>645.8413077592023</v>
+        <v>759.36454962878</v>
       </c>
       <c r="AC22" t="n">
-        <v>584.2031197906318</v>
+        <v>686.8918627870477</v>
       </c>
       <c r="AD22" t="n">
-        <v>472021.9877348316</v>
+        <v>554992.0078273823</v>
       </c>
       <c r="AE22" t="n">
-        <v>645841.3077592023</v>
+        <v>759364.54962878</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.168432454178643e-06</v>
+        <v>2.209229633600785e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>14</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="AH22" t="n">
-        <v>584203.1197906318</v>
+        <v>686891.8627870476</v>
       </c>
     </row>
   </sheetData>
@@ -17120,28 +17120,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>332.7466705207157</v>
+        <v>401.2585420682865</v>
       </c>
       <c r="AB2" t="n">
-        <v>455.2786743535032</v>
+        <v>549.0196395353425</v>
       </c>
       <c r="AC2" t="n">
-        <v>411.8275166608366</v>
+        <v>496.6219756919923</v>
       </c>
       <c r="AD2" t="n">
-        <v>332746.6705207157</v>
+        <v>401258.5420682865</v>
       </c>
       <c r="AE2" t="n">
-        <v>455278.6743535032</v>
+        <v>549019.6395353426</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.305800074001698e-06</v>
+        <v>2.993633829432925e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.27734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>411827.5166608366</v>
+        <v>496621.9756919923</v>
       </c>
     </row>
     <row r="3">
@@ -17226,28 +17226,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>292.7955108041642</v>
+        <v>361.2220414971633</v>
       </c>
       <c r="AB3" t="n">
-        <v>400.6157351085432</v>
+        <v>494.2399331681849</v>
       </c>
       <c r="AC3" t="n">
-        <v>362.3815316174986</v>
+        <v>447.0703676167154</v>
       </c>
       <c r="AD3" t="n">
-        <v>292795.5108041642</v>
+        <v>361222.0414971634</v>
       </c>
       <c r="AE3" t="n">
-        <v>400615.7351085432</v>
+        <v>494239.9331681849</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.395465184243585e-06</v>
+        <v>3.199197079645756e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.359375</v>
       </c>
       <c r="AH3" t="n">
-        <v>362381.5316174986</v>
+        <v>447070.3676167154</v>
       </c>
     </row>
     <row r="4">
@@ -17332,28 +17332,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>291.2900300607822</v>
+        <v>359.7165607537814</v>
       </c>
       <c r="AB4" t="n">
-        <v>398.555869938325</v>
+        <v>492.1800679979668</v>
       </c>
       <c r="AC4" t="n">
-        <v>360.5182570880871</v>
+        <v>445.207093087304</v>
       </c>
       <c r="AD4" t="n">
-        <v>291290.0300607822</v>
+        <v>359716.5607537815</v>
       </c>
       <c r="AE4" t="n">
-        <v>398555.869938325</v>
+        <v>492180.0679979668</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.401421857169267e-06</v>
+        <v>3.212853149924986e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.30078125</v>
       </c>
       <c r="AH4" t="n">
-        <v>360518.2570880871</v>
+        <v>445207.093087304</v>
       </c>
     </row>
   </sheetData>
@@ -17629,28 +17629,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>706.7236694071054</v>
+        <v>809.1960340609979</v>
       </c>
       <c r="AB2" t="n">
-        <v>966.9705029306323</v>
+        <v>1107.177713011757</v>
       </c>
       <c r="AC2" t="n">
-        <v>874.6841952825565</v>
+        <v>1001.510226015594</v>
       </c>
       <c r="AD2" t="n">
-        <v>706723.6694071054</v>
+        <v>809196.0340609979</v>
       </c>
       <c r="AE2" t="n">
-        <v>966970.5029306323</v>
+        <v>1107177.713011757</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.893509022234046e-07</v>
+        <v>1.74311547758694e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.20963541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>874684.1952825565</v>
+        <v>1001510.226015594</v>
       </c>
     </row>
     <row r="3">
@@ -17735,28 +17735,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>553.7558992834897</v>
+        <v>644.7476324161535</v>
       </c>
       <c r="AB3" t="n">
-        <v>757.673251385766</v>
+        <v>882.172154929829</v>
       </c>
       <c r="AC3" t="n">
-        <v>685.3619796745949</v>
+        <v>797.9788825997211</v>
       </c>
       <c r="AD3" t="n">
-        <v>553755.8992834897</v>
+        <v>644747.6324161534</v>
       </c>
       <c r="AE3" t="n">
-        <v>757673.251385766</v>
+        <v>882172.1549298291</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.058747520026895e-06</v>
+        <v>2.075130507431672e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.29947916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>685361.9796745948</v>
+        <v>797978.8825997212</v>
       </c>
     </row>
     <row r="4">
@@ -17841,28 +17841,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>509.6564762076551</v>
+        <v>589.3382595282335</v>
       </c>
       <c r="AB4" t="n">
-        <v>697.3344752041714</v>
+        <v>806.3586064555686</v>
       </c>
       <c r="AC4" t="n">
-        <v>630.7818516057675</v>
+        <v>729.4008727868605</v>
       </c>
       <c r="AD4" t="n">
-        <v>509656.4762076551</v>
+        <v>589338.2595282334</v>
       </c>
       <c r="AE4" t="n">
-        <v>697334.4752041715</v>
+        <v>806358.6064555687</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.118803833050485e-06</v>
+        <v>2.192840050983615e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.47916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>630781.8516057675</v>
+        <v>729400.8727868606</v>
       </c>
     </row>
     <row r="5">
@@ -17947,28 +17947,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>492.1785902401442</v>
+        <v>571.8603735607227</v>
       </c>
       <c r="AB5" t="n">
-        <v>673.4204605535139</v>
+        <v>782.4445918049109</v>
       </c>
       <c r="AC5" t="n">
-        <v>609.1501569498381</v>
+        <v>707.7691781309312</v>
       </c>
       <c r="AD5" t="n">
-        <v>492178.5902401442</v>
+        <v>571860.3735607227</v>
       </c>
       <c r="AE5" t="n">
-        <v>673420.4605535138</v>
+        <v>782444.5918049109</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.151220310212762e-06</v>
+        <v>2.256375898228098e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.06901041666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>609150.1569498382</v>
+        <v>707769.1781309312</v>
       </c>
     </row>
     <row r="6">
@@ -18053,28 +18053,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>468.6122550387695</v>
+        <v>548.3792897053684</v>
       </c>
       <c r="AB6" t="n">
-        <v>641.1759610576601</v>
+        <v>750.3167369617064</v>
       </c>
       <c r="AC6" t="n">
-        <v>579.9830272304295</v>
+        <v>678.7075606622348</v>
       </c>
       <c r="AD6" t="n">
-        <v>468612.2550387695</v>
+        <v>548379.2897053683</v>
       </c>
       <c r="AE6" t="n">
-        <v>641175.9610576601</v>
+        <v>750316.7369617064</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.17286446610776e-06</v>
+        <v>2.298798144661484e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.80859375</v>
       </c>
       <c r="AH6" t="n">
-        <v>579983.0272304295</v>
+        <v>678707.5606622348</v>
       </c>
     </row>
     <row r="7">
@@ -18159,28 +18159,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>460.7582544059775</v>
+        <v>540.5252890725765</v>
       </c>
       <c r="AB7" t="n">
-        <v>630.4297708978206</v>
+        <v>739.570546801867</v>
       </c>
       <c r="AC7" t="n">
-        <v>570.2624383770726</v>
+        <v>668.9869718088778</v>
       </c>
       <c r="AD7" t="n">
-        <v>460758.2544059776</v>
+        <v>540525.2890725764</v>
       </c>
       <c r="AE7" t="n">
-        <v>630429.7708978206</v>
+        <v>739570.546801867</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.185129487781591e-06</v>
+        <v>2.322837417640401e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.66536458333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>570262.4383770726</v>
+        <v>668986.9718088778</v>
       </c>
     </row>
     <row r="8">
@@ -18265,28 +18265,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>453.305271192515</v>
+        <v>533.072305859114</v>
       </c>
       <c r="AB8" t="n">
-        <v>620.2322704627476</v>
+        <v>729.373046366794</v>
       </c>
       <c r="AC8" t="n">
-        <v>561.038173071241</v>
+        <v>659.7627065030462</v>
       </c>
       <c r="AD8" t="n">
-        <v>453305.271192515</v>
+        <v>533072.3058591139</v>
       </c>
       <c r="AE8" t="n">
-        <v>620232.2704627475</v>
+        <v>729373.046366794</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.195802295688435e-06</v>
+        <v>2.343755973640312e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.54166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>561038.173071241</v>
+        <v>659762.7065030462</v>
       </c>
     </row>
     <row r="9">
@@ -18371,28 +18371,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>447.5774785150118</v>
+        <v>527.1739209810186</v>
       </c>
       <c r="AB9" t="n">
-        <v>612.3952518290088</v>
+        <v>721.3026159582082</v>
       </c>
       <c r="AC9" t="n">
-        <v>553.9491084965816</v>
+        <v>652.4625066457359</v>
       </c>
       <c r="AD9" t="n">
-        <v>447577.4785150118</v>
+        <v>527173.9209810186</v>
       </c>
       <c r="AE9" t="n">
-        <v>612395.2518290088</v>
+        <v>721302.6159582082</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.201872610675078e-06</v>
+        <v>2.355653707122779e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.4765625</v>
       </c>
       <c r="AH9" t="n">
-        <v>553949.1084965817</v>
+        <v>652462.5066457358</v>
       </c>
     </row>
     <row r="10">
@@ -18477,28 +18477,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>442.6318435049479</v>
+        <v>522.2282859709547</v>
       </c>
       <c r="AB10" t="n">
-        <v>605.6284158222217</v>
+        <v>714.5357799514211</v>
       </c>
       <c r="AC10" t="n">
-        <v>547.8280898209682</v>
+        <v>646.3414879701223</v>
       </c>
       <c r="AD10" t="n">
-        <v>442631.843504948</v>
+        <v>522228.2859709547</v>
       </c>
       <c r="AE10" t="n">
-        <v>605628.4158222217</v>
+        <v>714535.7799514211</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.206027293473313e-06</v>
+        <v>2.363796827989876e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.43098958333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>547828.0898209682</v>
+        <v>646341.4879701224</v>
       </c>
     </row>
     <row r="11">
@@ -18583,28 +18583,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>436.740216710627</v>
+        <v>516.3366591766337</v>
       </c>
       <c r="AB11" t="n">
-        <v>597.5672321220018</v>
+        <v>706.4745962512011</v>
       </c>
       <c r="AC11" t="n">
-        <v>540.5362541791549</v>
+        <v>639.0496523283091</v>
       </c>
       <c r="AD11" t="n">
-        <v>436740.216710627</v>
+        <v>516336.6591766337</v>
       </c>
       <c r="AE11" t="n">
-        <v>597567.2321220018</v>
+        <v>706474.5962512011</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.21381421392749e-06</v>
+        <v>2.379059084465335e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.34635416666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>540536.2541791549</v>
+        <v>639049.6523283091</v>
       </c>
     </row>
     <row r="12">
@@ -18689,28 +18689,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>431.7750415496486</v>
+        <v>511.3714840156554</v>
       </c>
       <c r="AB12" t="n">
-        <v>590.7736604186828</v>
+        <v>699.6810245478821</v>
       </c>
       <c r="AC12" t="n">
-        <v>534.3910514243629</v>
+        <v>632.9044495735171</v>
       </c>
       <c r="AD12" t="n">
-        <v>431775.0415496486</v>
+        <v>511371.4840156554</v>
       </c>
       <c r="AE12" t="n">
-        <v>590773.6604186827</v>
+        <v>699681.0245478821</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.215680089435679e-06</v>
+        <v>2.38271617467511e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13.3203125</v>
       </c>
       <c r="AH12" t="n">
-        <v>534391.0514243629</v>
+        <v>632904.4495735171</v>
       </c>
     </row>
     <row r="13">
@@ -18795,28 +18795,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>426.2598319055832</v>
+        <v>505.85627437159</v>
       </c>
       <c r="AB13" t="n">
-        <v>583.2275072697953</v>
+        <v>692.1348713989945</v>
       </c>
       <c r="AC13" t="n">
-        <v>527.5650925409127</v>
+        <v>626.0784906900669</v>
       </c>
       <c r="AD13" t="n">
-        <v>426259.8319055832</v>
+        <v>505856.27437159</v>
       </c>
       <c r="AE13" t="n">
-        <v>583227.5072697953</v>
+        <v>692134.8713989945</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.221128445919592e-06</v>
+        <v>2.393394878087652e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>14</v>
+        <v>13.26171875</v>
       </c>
       <c r="AH13" t="n">
-        <v>527565.0925409127</v>
+        <v>626078.4906900669</v>
       </c>
     </row>
     <row r="14">
@@ -18901,28 +18901,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>422.4462533198525</v>
+        <v>502.0426957858592</v>
       </c>
       <c r="AB14" t="n">
-        <v>578.0096008055851</v>
+        <v>686.9169649347846</v>
       </c>
       <c r="AC14" t="n">
-        <v>522.8451757462693</v>
+        <v>621.3585738954234</v>
       </c>
       <c r="AD14" t="n">
-        <v>422446.2533198525</v>
+        <v>502042.6957858593</v>
       </c>
       <c r="AE14" t="n">
-        <v>578009.6008055852</v>
+        <v>686916.9649347846</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.220606000777299e-06</v>
+        <v>2.392370892828915e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>14</v>
+        <v>13.26822916666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>522845.1757462693</v>
+        <v>621358.5738954234</v>
       </c>
     </row>
     <row r="15">
@@ -19007,28 +19007,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>422.9324845173197</v>
+        <v>502.5289269833264</v>
       </c>
       <c r="AB15" t="n">
-        <v>578.6748837809663</v>
+        <v>687.5822479101657</v>
       </c>
       <c r="AC15" t="n">
-        <v>523.4469650482106</v>
+        <v>621.9603631973646</v>
       </c>
       <c r="AD15" t="n">
-        <v>422932.4845173197</v>
+        <v>502528.9269833264</v>
       </c>
       <c r="AE15" t="n">
-        <v>578674.8837809663</v>
+        <v>687582.2479101657</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.22336749652942e-06</v>
+        <v>2.397783386339381e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>13.2421875</v>
       </c>
       <c r="AH15" t="n">
-        <v>523446.9650482106</v>
+        <v>621960.3631973646</v>
       </c>
     </row>
   </sheetData>
@@ -19304,28 +19304,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>799.8235117895684</v>
+        <v>916.111692249022</v>
       </c>
       <c r="AB2" t="n">
-        <v>1094.353814553487</v>
+        <v>1253.464433330557</v>
       </c>
       <c r="AC2" t="n">
-        <v>989.9102224277267</v>
+        <v>1133.835547061869</v>
       </c>
       <c r="AD2" t="n">
-        <v>799823.5117895685</v>
+        <v>916111.692249022</v>
       </c>
       <c r="AE2" t="n">
-        <v>1094353.814553487</v>
+        <v>1253464.433330557</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.253164056647072e-07</v>
+        <v>1.586838396167683e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.23177083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>989910.2224277267</v>
+        <v>1133835.547061869</v>
       </c>
     </row>
     <row r="3">
@@ -19410,28 +19410,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>601.6872617377825</v>
+        <v>694.8542798658192</v>
       </c>
       <c r="AB3" t="n">
-        <v>823.2550560782011</v>
+        <v>950.7302805197344</v>
       </c>
       <c r="AC3" t="n">
-        <v>744.684748971825</v>
+        <v>859.9939169052594</v>
       </c>
       <c r="AD3" t="n">
-        <v>601687.2617377825</v>
+        <v>694854.2798658191</v>
       </c>
       <c r="AE3" t="n">
-        <v>823255.056078201</v>
+        <v>950730.2805197344</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.007135623275111e-06</v>
+        <v>1.936422766095463e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.75520833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>744684.748971825</v>
+        <v>859993.9169052595</v>
       </c>
     </row>
     <row r="4">
@@ -19516,28 +19516,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>549.0392639557296</v>
+        <v>642.1209412291945</v>
       </c>
       <c r="AB4" t="n">
-        <v>751.2197428470597</v>
+        <v>878.5782001663954</v>
       </c>
       <c r="AC4" t="n">
-        <v>679.5243849332666</v>
+        <v>794.7279298347624</v>
       </c>
       <c r="AD4" t="n">
-        <v>549039.2639557295</v>
+        <v>642120.9412291945</v>
       </c>
       <c r="AE4" t="n">
-        <v>751219.7428470597</v>
+        <v>878578.2001663954</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.074949145649711e-06</v>
+        <v>2.066808034514699e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.765625</v>
       </c>
       <c r="AH4" t="n">
-        <v>679524.3849332666</v>
+        <v>794727.9298347625</v>
       </c>
     </row>
     <row r="5">
@@ -19622,28 +19622,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>530.3241224783181</v>
+        <v>611.7600119943297</v>
       </c>
       <c r="AB5" t="n">
-        <v>725.6128606238954</v>
+        <v>837.0370373575876</v>
       </c>
       <c r="AC5" t="n">
-        <v>656.361387609996</v>
+        <v>757.1513973010391</v>
       </c>
       <c r="AD5" t="n">
-        <v>530324.1224783182</v>
+        <v>611760.0119943297</v>
       </c>
       <c r="AE5" t="n">
-        <v>725612.8606238953</v>
+        <v>837037.0373575876</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.108100256515799e-06</v>
+        <v>2.130547777523383e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.32291666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>656361.387609996</v>
+        <v>757151.3973010391</v>
       </c>
     </row>
     <row r="6">
@@ -19728,28 +19728,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>517.3973704786033</v>
+        <v>598.8332599946148</v>
       </c>
       <c r="AB6" t="n">
-        <v>707.925908249836</v>
+        <v>819.3500849835284</v>
       </c>
       <c r="AC6" t="n">
-        <v>640.3624531467233</v>
+        <v>741.1524628377664</v>
       </c>
       <c r="AD6" t="n">
-        <v>517397.3704786033</v>
+        <v>598833.2599946148</v>
       </c>
       <c r="AE6" t="n">
-        <v>707925.9082498359</v>
+        <v>819350.0849835284</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.129745981846009e-06</v>
+        <v>2.172166080311406e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.04947916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>640362.4531467233</v>
+        <v>741152.4628377664</v>
       </c>
     </row>
     <row r="7">
@@ -19834,28 +19834,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>495.2894264843242</v>
+        <v>576.8105673463563</v>
       </c>
       <c r="AB7" t="n">
-        <v>677.6768439432099</v>
+        <v>789.2176653295514</v>
       </c>
       <c r="AC7" t="n">
-        <v>613.0003170826933</v>
+        <v>713.8958390244485</v>
       </c>
       <c r="AD7" t="n">
-        <v>495289.4264843242</v>
+        <v>576810.5673463562</v>
       </c>
       <c r="AE7" t="n">
-        <v>677676.8439432099</v>
+        <v>789217.6653295514</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.146955308516199e-06</v>
+        <v>2.20525450572621e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.83463541666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>613000.3170826933</v>
+        <v>713895.8390244485</v>
       </c>
     </row>
     <row r="8">
@@ -19940,28 +19940,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>488.3016186493427</v>
+        <v>569.8227595113748</v>
       </c>
       <c r="AB8" t="n">
-        <v>668.115816983064</v>
+        <v>779.6566383694054</v>
       </c>
       <c r="AC8" t="n">
-        <v>604.351781116638</v>
+        <v>705.2473030583933</v>
       </c>
       <c r="AD8" t="n">
-        <v>488301.6186493427</v>
+        <v>569822.7595113748</v>
       </c>
       <c r="AE8" t="n">
-        <v>668115.8169830639</v>
+        <v>779656.6383694054</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.157022520860092e-06</v>
+        <v>2.224610765919288e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.71744791666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>604351.781116638</v>
+        <v>705247.3030583933</v>
       </c>
     </row>
     <row r="9">
@@ -20046,28 +20046,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>483.128258029763</v>
+        <v>564.649398891795</v>
       </c>
       <c r="AB9" t="n">
-        <v>661.0373967507921</v>
+        <v>772.5782181371338</v>
       </c>
       <c r="AC9" t="n">
-        <v>597.9489153767092</v>
+        <v>698.8444373184645</v>
       </c>
       <c r="AD9" t="n">
-        <v>483128.258029763</v>
+        <v>564649.3988917951</v>
       </c>
       <c r="AE9" t="n">
-        <v>661037.3967507922</v>
+        <v>772578.2181371339</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.162677710360778e-06</v>
+        <v>2.23548401619724e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.65234375</v>
       </c>
       <c r="AH9" t="n">
-        <v>597948.9153767092</v>
+        <v>698844.4373184645</v>
       </c>
     </row>
     <row r="10">
@@ -20152,28 +20152,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>476.5757250346269</v>
+        <v>558.096865896659</v>
       </c>
       <c r="AB10" t="n">
-        <v>652.0719320294934</v>
+        <v>763.612753415835</v>
       </c>
       <c r="AC10" t="n">
-        <v>589.8391020253024</v>
+        <v>690.7346239670576</v>
       </c>
       <c r="AD10" t="n">
-        <v>476575.7250346269</v>
+        <v>558096.865896659</v>
       </c>
       <c r="AE10" t="n">
-        <v>652071.9320294934</v>
+        <v>763612.753415835</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.171916144933018e-06</v>
+        <v>2.253246782815101e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.54166666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>589839.1020253024</v>
+        <v>690734.6239670576</v>
       </c>
     </row>
     <row r="11">
@@ -20258,28 +20258,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>471.594524819673</v>
+        <v>552.9450734811129</v>
       </c>
       <c r="AB11" t="n">
-        <v>645.2564341403494</v>
+        <v>756.563843751844</v>
       </c>
       <c r="AC11" t="n">
-        <v>583.6740656890869</v>
+        <v>684.3584523481911</v>
       </c>
       <c r="AD11" t="n">
-        <v>471594.524819673</v>
+        <v>552945.073481113</v>
       </c>
       <c r="AE11" t="n">
-        <v>645256.4341403494</v>
+        <v>756563.843751844</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.176669429211612e-06</v>
+        <v>2.262385937143552e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.48958333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>583674.0656890869</v>
+        <v>684358.4523481912</v>
       </c>
     </row>
     <row r="12">
@@ -20364,28 +20364,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>467.9519778201397</v>
+        <v>549.3025264815795</v>
       </c>
       <c r="AB12" t="n">
-        <v>640.2725406377558</v>
+        <v>751.5799502492505</v>
       </c>
       <c r="AC12" t="n">
-        <v>579.1658279874424</v>
+        <v>679.8502146465466</v>
       </c>
       <c r="AD12" t="n">
-        <v>467951.9778201397</v>
+        <v>549302.5264815795</v>
       </c>
       <c r="AE12" t="n">
-        <v>640272.5406377558</v>
+        <v>751579.9502492505</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.1804964324513e-06</v>
+        <v>2.269744128064408e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13.44401041666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>579165.8279874424</v>
+        <v>679850.2146465466</v>
       </c>
     </row>
     <row r="13">
@@ -20470,28 +20470,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>463.8878813900176</v>
+        <v>545.2384300514574</v>
       </c>
       <c r="AB13" t="n">
-        <v>634.7118646067822</v>
+        <v>746.0192742182768</v>
       </c>
       <c r="AC13" t="n">
-        <v>574.135855072407</v>
+        <v>674.8202417315114</v>
       </c>
       <c r="AD13" t="n">
-        <v>463887.8813900176</v>
+        <v>545238.4300514574</v>
       </c>
       <c r="AE13" t="n">
-        <v>634711.8646067822</v>
+        <v>746019.2742182768</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.182617128514057e-06</v>
+        <v>2.27382159691864e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>14</v>
+        <v>13.41796875</v>
       </c>
       <c r="AH13" t="n">
-        <v>574135.8550724071</v>
+        <v>674820.2417315114</v>
       </c>
     </row>
     <row r="14">
@@ -20576,28 +20576,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>459.8163378199241</v>
+        <v>541.1668864813639</v>
       </c>
       <c r="AB14" t="n">
-        <v>629.1409990703552</v>
+        <v>740.4484086818499</v>
       </c>
       <c r="AC14" t="n">
-        <v>569.0966651240177</v>
+        <v>669.7810517831222</v>
       </c>
       <c r="AD14" t="n">
-        <v>459816.3378199241</v>
+        <v>541166.8864813639</v>
       </c>
       <c r="AE14" t="n">
-        <v>629140.9990703552</v>
+        <v>740448.4086818498</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.185347219997146e-06</v>
+        <v>2.279070752225238e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>14</v>
+        <v>13.38541666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>569096.6651240177</v>
+        <v>669781.0517831221</v>
       </c>
     </row>
     <row r="15">
@@ -20682,28 +20682,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>455.2307025104418</v>
+        <v>536.5812511718817</v>
       </c>
       <c r="AB15" t="n">
-        <v>622.8667305359696</v>
+        <v>734.1741401474643</v>
       </c>
       <c r="AC15" t="n">
-        <v>563.4212039725628</v>
+        <v>664.1055906316672</v>
       </c>
       <c r="AD15" t="n">
-        <v>455230.7025104418</v>
+        <v>536581.2511718817</v>
       </c>
       <c r="AE15" t="n">
-        <v>622866.7305359696</v>
+        <v>734174.1401474643</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.188832961801448e-06</v>
+        <v>2.285772798732769e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>13.34635416666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>563421.2039725628</v>
+        <v>664105.5906316672</v>
       </c>
     </row>
     <row r="16">
@@ -20788,28 +20788,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>451.7592883897887</v>
+        <v>533.1098370512285</v>
       </c>
       <c r="AB16" t="n">
-        <v>618.1169885881096</v>
+        <v>729.4243981996044</v>
       </c>
       <c r="AC16" t="n">
-        <v>559.1247707299017</v>
+        <v>659.8091573890061</v>
       </c>
       <c r="AD16" t="n">
-        <v>451759.2883897886</v>
+        <v>533109.8370512285</v>
       </c>
       <c r="AE16" t="n">
-        <v>618116.9885881096</v>
+        <v>729424.3981996044</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.191831187269484e-06</v>
+        <v>2.291537496078407e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>14</v>
+        <v>13.31380208333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>559124.7707299017</v>
+        <v>659809.1573890061</v>
       </c>
     </row>
     <row r="17">
@@ -20894,28 +20894,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>446.1518130232699</v>
+        <v>527.5023616847097</v>
       </c>
       <c r="AB17" t="n">
-        <v>610.4445934072851</v>
+        <v>721.7520030187796</v>
       </c>
       <c r="AC17" t="n">
-        <v>552.1846181768607</v>
+        <v>652.8690048359651</v>
       </c>
       <c r="AD17" t="n">
-        <v>446151.8130232699</v>
+        <v>527502.3616847098</v>
       </c>
       <c r="AE17" t="n">
-        <v>610444.5934072851</v>
+        <v>721752.0030187797</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.194780661103893e-06</v>
+        <v>2.297208458507856e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>14</v>
+        <v>13.28125</v>
       </c>
       <c r="AH17" t="n">
-        <v>552184.6181768607</v>
+        <v>652869.0048359651</v>
       </c>
     </row>
     <row r="18">
@@ -21000,28 +21000,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>447.4131490184771</v>
+        <v>528.7636976799171</v>
       </c>
       <c r="AB18" t="n">
-        <v>612.1704089621444</v>
+        <v>723.4778185736391</v>
       </c>
       <c r="AC18" t="n">
-        <v>553.7457243173618</v>
+        <v>654.4301109764659</v>
       </c>
       <c r="AD18" t="n">
-        <v>447413.1490184771</v>
+        <v>528763.6976799171</v>
       </c>
       <c r="AE18" t="n">
-        <v>612170.4089621444</v>
+        <v>723477.818573639</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.193878755881801e-06</v>
+        <v>2.295474362558355e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>14</v>
+        <v>13.29427083333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>553745.7243173618</v>
+        <v>654430.110976466</v>
       </c>
     </row>
   </sheetData>
@@ -21297,28 +21297,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1001.416980004461</v>
+        <v>1134.267797636934</v>
       </c>
       <c r="AB2" t="n">
-        <v>1370.182891441237</v>
+        <v>1551.955241090414</v>
       </c>
       <c r="AC2" t="n">
-        <v>1239.41455934585</v>
+        <v>1403.838811063605</v>
       </c>
       <c r="AD2" t="n">
-        <v>1001416.980004461</v>
+        <v>1134267.797636934</v>
       </c>
       <c r="AE2" t="n">
-        <v>1370182.891441237</v>
+        <v>1551955.241090414</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.161483460392022e-07</v>
+        <v>1.334130051379764e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.38671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1239414.55934585</v>
+        <v>1403838.811063605</v>
       </c>
     </row>
     <row r="3">
@@ -21403,28 +21403,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>715.4494219439302</v>
+        <v>824.1997800436847</v>
       </c>
       <c r="AB3" t="n">
-        <v>978.9094625045492</v>
+        <v>1127.706500183826</v>
       </c>
       <c r="AC3" t="n">
-        <v>885.4837173111739</v>
+        <v>1020.079774552294</v>
       </c>
       <c r="AD3" t="n">
-        <v>715449.4219439302</v>
+        <v>824199.7800436846</v>
       </c>
       <c r="AE3" t="n">
-        <v>978909.4625045492</v>
+        <v>1127706.500183826</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.127962163393418e-07</v>
+        <v>1.700470118711129e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.78385416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>885483.7173111739</v>
+        <v>1020079.774552294</v>
       </c>
     </row>
     <row r="4">
@@ -21509,28 +21509,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>645.2488048761313</v>
+        <v>741.8210561904956</v>
       </c>
       <c r="AB4" t="n">
-        <v>882.8578811997394</v>
+        <v>1014.992295915092</v>
       </c>
       <c r="AC4" t="n">
-        <v>798.5991641168541</v>
+        <v>918.1228557435888</v>
       </c>
       <c r="AD4" t="n">
-        <v>645248.8048761314</v>
+        <v>741821.0561904956</v>
       </c>
       <c r="AE4" t="n">
-        <v>882857.8811997394</v>
+        <v>1014992.295915092</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.895448826373863e-07</v>
+        <v>1.843447062912482e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.48177083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>798599.1641168541</v>
+        <v>918122.8557435889</v>
       </c>
     </row>
     <row r="5">
@@ -21615,28 +21615,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>606.1376617540291</v>
+        <v>702.7951644144138</v>
       </c>
       <c r="AB5" t="n">
-        <v>829.3442897182216</v>
+        <v>961.5953490862232</v>
       </c>
       <c r="AC5" t="n">
-        <v>750.192834699535</v>
+        <v>869.8220385769822</v>
       </c>
       <c r="AD5" t="n">
-        <v>606137.6617540291</v>
+        <v>702795.1644144137</v>
       </c>
       <c r="AE5" t="n">
-        <v>829344.2897182216</v>
+        <v>961595.3490862232</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.029495598570581e-06</v>
+        <v>1.917872216577074e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.87630208333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>750192.8346995349</v>
+        <v>869822.0385769822</v>
       </c>
     </row>
     <row r="6">
@@ -21721,28 +21721,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>588.7809665210045</v>
+        <v>673.3457032505706</v>
       </c>
       <c r="AB6" t="n">
-        <v>805.5960935770455</v>
+        <v>921.3012971033207</v>
       </c>
       <c r="AC6" t="n">
-        <v>728.7111330672702</v>
+        <v>833.3735943622706</v>
       </c>
       <c r="AD6" t="n">
-        <v>588780.9665210046</v>
+        <v>673345.7032505707</v>
       </c>
       <c r="AE6" t="n">
-        <v>805596.0935770455</v>
+        <v>921301.2971033207</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.056294105901504e-06</v>
+        <v>1.967795803163628e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.49869791666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>728711.1330672703</v>
+        <v>833373.5943622707</v>
       </c>
     </row>
     <row r="7">
@@ -21827,28 +21827,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>577.6789597806106</v>
+        <v>662.2436965101768</v>
       </c>
       <c r="AB7" t="n">
-        <v>790.4058381688687</v>
+        <v>906.1110416951437</v>
       </c>
       <c r="AC7" t="n">
-        <v>714.9706143155923</v>
+        <v>819.6330756105928</v>
       </c>
       <c r="AD7" t="n">
-        <v>577678.9597806106</v>
+        <v>662243.6965101769</v>
       </c>
       <c r="AE7" t="n">
-        <v>790405.8381688688</v>
+        <v>906111.0416951438</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.072999057793476e-06</v>
+        <v>1.998915861527503e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.27734375</v>
       </c>
       <c r="AH7" t="n">
-        <v>714970.6143155923</v>
+        <v>819633.0756105927</v>
       </c>
     </row>
     <row r="8">
@@ -21933,28 +21933,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>568.1142097512596</v>
+        <v>652.6789464808257</v>
       </c>
       <c r="AB8" t="n">
-        <v>777.3189252117204</v>
+        <v>893.0241287379954</v>
       </c>
       <c r="AC8" t="n">
-        <v>703.1326979634765</v>
+        <v>807.7951592584769</v>
       </c>
       <c r="AD8" t="n">
-        <v>568114.2097512597</v>
+        <v>652678.9464808258</v>
       </c>
       <c r="AE8" t="n">
-        <v>777318.9252117204</v>
+        <v>893024.1287379954</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.087539424369868e-06</v>
+        <v>2.02600346162451e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.08203125</v>
       </c>
       <c r="AH8" t="n">
-        <v>703132.6979634765</v>
+        <v>807795.1592584769</v>
       </c>
     </row>
     <row r="9">
@@ -22039,28 +22039,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>549.9020492809394</v>
+        <v>646.4742110867526</v>
       </c>
       <c r="AB9" t="n">
-        <v>752.400243792414</v>
+        <v>884.5345360382179</v>
       </c>
       <c r="AC9" t="n">
-        <v>680.5922205252398</v>
+        <v>800.115801370748</v>
       </c>
       <c r="AD9" t="n">
-        <v>549902.0492809394</v>
+        <v>646474.2110867526</v>
       </c>
       <c r="AE9" t="n">
-        <v>752400.243792414</v>
+        <v>884534.5360382178</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.095962484619623e-06</v>
+        <v>2.041694984010802e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.97786458333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>680592.2205252398</v>
+        <v>800115.8013707481</v>
       </c>
     </row>
     <row r="10">
@@ -22145,28 +22145,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>542.9501477602194</v>
+        <v>627.6001358358061</v>
       </c>
       <c r="AB10" t="n">
-        <v>742.8883454355151</v>
+        <v>858.7101936144397</v>
       </c>
       <c r="AC10" t="n">
-        <v>671.9881243974902</v>
+        <v>776.7560979432028</v>
       </c>
       <c r="AD10" t="n">
-        <v>542950.1477602194</v>
+        <v>627600.1358358061</v>
       </c>
       <c r="AE10" t="n">
-        <v>742888.3454355152</v>
+        <v>858710.1936144397</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.105609006134705e-06</v>
+        <v>2.059665721939237e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.85416666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>671988.1243974902</v>
+        <v>776756.0979432028</v>
       </c>
     </row>
     <row r="11">
@@ -22251,28 +22251,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>538.4653995448482</v>
+        <v>623.1153876204351</v>
       </c>
       <c r="AB11" t="n">
-        <v>736.752115074117</v>
+        <v>852.5739632530413</v>
       </c>
       <c r="AC11" t="n">
-        <v>666.4375272495304</v>
+        <v>771.2055007952431</v>
       </c>
       <c r="AD11" t="n">
-        <v>538465.3995448482</v>
+        <v>623115.3876204351</v>
       </c>
       <c r="AE11" t="n">
-        <v>736752.115074117</v>
+        <v>852573.9632530413</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.111326334739985e-06</v>
+        <v>2.070316671491944e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.78255208333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>666437.5272495304</v>
+        <v>771205.5007952431</v>
       </c>
     </row>
     <row r="12">
@@ -22357,28 +22357,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>535.2461605825458</v>
+        <v>619.8961486581326</v>
       </c>
       <c r="AB12" t="n">
-        <v>732.3474103030951</v>
+        <v>848.1692584820196</v>
       </c>
       <c r="AC12" t="n">
-        <v>662.453201319813</v>
+        <v>767.2211748655257</v>
       </c>
       <c r="AD12" t="n">
-        <v>535246.1605825458</v>
+        <v>619896.1486581325</v>
       </c>
       <c r="AE12" t="n">
-        <v>732347.4103030951</v>
+        <v>848169.2584820195</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.113490920055565e-06</v>
+        <v>2.074349129758812e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13.75651041666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>662453.201319813</v>
+        <v>767221.1748655257</v>
       </c>
     </row>
     <row r="13">
@@ -22463,28 +22463,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>530.1480429857133</v>
+        <v>614.7980310613001</v>
       </c>
       <c r="AB13" t="n">
-        <v>725.3719408940341</v>
+        <v>841.1937890729587</v>
       </c>
       <c r="AC13" t="n">
-        <v>656.1434609210201</v>
+        <v>760.9114344667327</v>
       </c>
       <c r="AD13" t="n">
-        <v>530148.0429857133</v>
+        <v>614798.0310613001</v>
       </c>
       <c r="AE13" t="n">
-        <v>725371.9408940341</v>
+        <v>841193.7890729586</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.120549350432454e-06</v>
+        <v>2.087498450194252e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>14</v>
+        <v>13.671875</v>
       </c>
       <c r="AH13" t="n">
-        <v>656143.46092102</v>
+        <v>760911.4344667327</v>
       </c>
     </row>
     <row r="14">
@@ -22569,28 +22569,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>526.4211338004036</v>
+        <v>611.0711218759905</v>
       </c>
       <c r="AB14" t="n">
-        <v>720.2726193270644</v>
+        <v>836.0944675059887</v>
       </c>
       <c r="AC14" t="n">
-        <v>651.5308114474591</v>
+        <v>756.2987849931717</v>
       </c>
       <c r="AD14" t="n">
-        <v>526421.1338004036</v>
+        <v>611071.1218759904</v>
       </c>
       <c r="AE14" t="n">
-        <v>720272.6193270644</v>
+        <v>836094.4675059888</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.124313846633462e-06</v>
+        <v>2.094511421093154e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>14</v>
+        <v>13.62630208333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>651530.811447459</v>
+        <v>756298.7849931717</v>
       </c>
     </row>
     <row r="15">
@@ -22675,28 +22675,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>523.3431071551379</v>
+        <v>607.9930952307246</v>
       </c>
       <c r="AB15" t="n">
-        <v>716.0611274780601</v>
+        <v>831.8829756569844</v>
       </c>
       <c r="AC15" t="n">
-        <v>647.7212584696578</v>
+        <v>752.4892320153704</v>
       </c>
       <c r="AD15" t="n">
-        <v>523343.1071551379</v>
+        <v>607993.0952307247</v>
       </c>
       <c r="AE15" t="n">
-        <v>716061.1274780602</v>
+        <v>831882.9756569844</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.126596072455323e-06</v>
+        <v>2.098763034700612e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>13.59375</v>
       </c>
       <c r="AH15" t="n">
-        <v>647721.2584696577</v>
+        <v>752489.2320153704</v>
       </c>
     </row>
     <row r="16">
@@ -22781,28 +22781,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>519.4917604451898</v>
+        <v>604.1417485207767</v>
       </c>
       <c r="AB16" t="n">
-        <v>710.7915450000837</v>
+        <v>826.6133931790081</v>
       </c>
       <c r="AC16" t="n">
-        <v>642.9545975474741</v>
+        <v>747.7225710931867</v>
       </c>
       <c r="AD16" t="n">
-        <v>519491.7604451898</v>
+        <v>604141.7485207766</v>
       </c>
       <c r="AE16" t="n">
-        <v>710791.5450000837</v>
+        <v>826613.393179008</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.129748838023667e-06</v>
+        <v>2.104636397828443e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>14</v>
+        <v>13.56119791666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>642954.5975474741</v>
+        <v>747722.5710931867</v>
       </c>
     </row>
     <row r="17">
@@ -22887,28 +22887,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>515.8075935391984</v>
+        <v>600.4575816147852</v>
       </c>
       <c r="AB17" t="n">
-        <v>705.7507053053336</v>
+        <v>821.572553484258</v>
       </c>
       <c r="AC17" t="n">
-        <v>638.3948485183278</v>
+        <v>743.1628220640405</v>
       </c>
       <c r="AD17" t="n">
-        <v>515807.5935391984</v>
+        <v>600457.5816147852</v>
       </c>
       <c r="AE17" t="n">
-        <v>705750.7053053336</v>
+        <v>821572.553484258</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.132831019288242e-06</v>
+        <v>2.110378267751918e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>14</v>
+        <v>13.52213541666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>638394.8485183278</v>
+        <v>743162.8220640405</v>
       </c>
     </row>
     <row r="18">
@@ -22993,28 +22993,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>513.0291403239015</v>
+        <v>597.6791283994883</v>
       </c>
       <c r="AB18" t="n">
-        <v>701.9491030394596</v>
+        <v>817.7709512183839</v>
       </c>
       <c r="AC18" t="n">
-        <v>634.9560658371264</v>
+        <v>739.7240393828392</v>
       </c>
       <c r="AD18" t="n">
-        <v>513029.1403239015</v>
+        <v>597679.1283994883</v>
       </c>
       <c r="AE18" t="n">
-        <v>701949.1030394596</v>
+        <v>817770.9512183839</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.133513334224675e-06</v>
+        <v>2.111649368727344e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>14</v>
+        <v>13.515625</v>
       </c>
       <c r="AH18" t="n">
-        <v>634956.0658371265</v>
+        <v>739724.0393828392</v>
       </c>
     </row>
     <row r="19">
@@ -23099,28 +23099,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>511.0263760288297</v>
+        <v>595.5057719038244</v>
       </c>
       <c r="AB19" t="n">
-        <v>699.2088325752175</v>
+        <v>814.7972689792949</v>
       </c>
       <c r="AC19" t="n">
-        <v>632.477322939998</v>
+        <v>737.0341612030596</v>
       </c>
       <c r="AD19" t="n">
-        <v>511026.3760288297</v>
+        <v>595505.7719038244</v>
       </c>
       <c r="AE19" t="n">
-        <v>699208.8325752175</v>
+        <v>814797.2689792949</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.136219065869149e-06</v>
+        <v>2.11668994156093e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>14</v>
+        <v>13.48307291666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>632477.322939998</v>
+        <v>737034.1612030596</v>
       </c>
     </row>
     <row r="20">
@@ -23205,28 +23205,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>507.1351876409927</v>
+        <v>591.6145835159873</v>
       </c>
       <c r="AB20" t="n">
-        <v>693.8847369558628</v>
+        <v>809.47317335994</v>
       </c>
       <c r="AC20" t="n">
-        <v>627.6613515341393</v>
+        <v>732.2181897972008</v>
       </c>
       <c r="AD20" t="n">
-        <v>507135.1876409927</v>
+        <v>591614.5835159873</v>
       </c>
       <c r="AE20" t="n">
-        <v>693884.7369558627</v>
+        <v>809473.1733599401</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.136077897261611e-06</v>
+        <v>2.116426955152221e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>14</v>
+        <v>13.48307291666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>627661.3515341392</v>
+        <v>732218.1897972008</v>
       </c>
     </row>
     <row r="21">
@@ -23311,28 +23311,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>505.3583739438337</v>
+        <v>589.8377698188284</v>
       </c>
       <c r="AB21" t="n">
-        <v>691.4536220679219</v>
+        <v>807.0420584719992</v>
       </c>
       <c r="AC21" t="n">
-        <v>625.4622588390124</v>
+        <v>730.0190971020739</v>
       </c>
       <c r="AD21" t="n">
-        <v>505358.3739438338</v>
+        <v>589837.7698188284</v>
       </c>
       <c r="AE21" t="n">
-        <v>691453.6220679219</v>
+        <v>807042.0584719992</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.138971853716136e-06</v>
+        <v>2.121818176530751e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>14</v>
+        <v>13.45052083333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>625462.2588390124</v>
+        <v>730019.097102074</v>
       </c>
     </row>
     <row r="22">
@@ -23417,28 +23417,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>502.9838464115047</v>
+        <v>587.4632422864993</v>
       </c>
       <c r="AB22" t="n">
-        <v>688.2046887414278</v>
+        <v>803.7931251455052</v>
       </c>
       <c r="AC22" t="n">
-        <v>622.5233991492923</v>
+        <v>727.080237412354</v>
       </c>
       <c r="AD22" t="n">
-        <v>502983.8464115047</v>
+        <v>587463.2422864992</v>
       </c>
       <c r="AE22" t="n">
-        <v>688204.6887414278</v>
+        <v>803793.1251455052</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.138618932197291e-06</v>
+        <v>2.121160710508979e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>14</v>
+        <v>13.45052083333333</v>
       </c>
       <c r="AH22" t="n">
-        <v>622523.3991492924</v>
+        <v>727080.237412354</v>
       </c>
     </row>
     <row r="23">
@@ -23523,28 +23523,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>499.8876394585783</v>
+        <v>584.3670353335729</v>
       </c>
       <c r="AB23" t="n">
-        <v>683.9683217934236</v>
+        <v>799.556758197501</v>
       </c>
       <c r="AC23" t="n">
-        <v>618.6913451170274</v>
+        <v>723.248183380089</v>
       </c>
       <c r="AD23" t="n">
-        <v>499887.6394585783</v>
+        <v>584367.0353335729</v>
       </c>
       <c r="AE23" t="n">
-        <v>683968.3217934236</v>
+        <v>799556.7581975011</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.142148147385736e-06</v>
+        <v>2.127735370726699e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>14</v>
+        <v>13.41145833333333</v>
       </c>
       <c r="AH23" t="n">
-        <v>618691.3451170274</v>
+        <v>723248.183380089</v>
       </c>
     </row>
     <row r="24">
@@ -23629,28 +23629,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>497.0765978453009</v>
+        <v>581.5559937202956</v>
       </c>
       <c r="AB24" t="n">
-        <v>680.1221306437342</v>
+        <v>795.7105670478114</v>
       </c>
       <c r="AC24" t="n">
-        <v>615.212229052501</v>
+        <v>719.7690673155627</v>
       </c>
       <c r="AD24" t="n">
-        <v>497076.5978453009</v>
+        <v>581555.9937202956</v>
       </c>
       <c r="AE24" t="n">
-        <v>680122.1306437341</v>
+        <v>795710.5670478115</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.142571653208349e-06</v>
+        <v>2.128524329952826e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>14</v>
+        <v>13.40494791666667</v>
       </c>
       <c r="AH24" t="n">
-        <v>615212.229052501</v>
+        <v>719769.0673155626</v>
       </c>
     </row>
     <row r="25">
@@ -23735,28 +23735,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>494.6033931558421</v>
+        <v>579.0827890308368</v>
       </c>
       <c r="AB25" t="n">
-        <v>676.7381828775262</v>
+        <v>792.3266192816035</v>
       </c>
       <c r="AC25" t="n">
-        <v>612.1512405116994</v>
+        <v>716.7080787747609</v>
       </c>
       <c r="AD25" t="n">
-        <v>494603.3931558421</v>
+        <v>579082.7890308368</v>
       </c>
       <c r="AE25" t="n">
-        <v>676738.1828775263</v>
+        <v>792326.6192816035</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.142242259790761e-06</v>
+        <v>2.127910694999172e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>14</v>
+        <v>13.41145833333333</v>
       </c>
       <c r="AH25" t="n">
-        <v>612151.2405116993</v>
+        <v>716708.0787747609</v>
       </c>
     </row>
     <row r="26">
@@ -23841,28 +23841,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>495.0916327731353</v>
+        <v>579.5710286481299</v>
       </c>
       <c r="AB26" t="n">
-        <v>677.4062138615185</v>
+        <v>792.9946502655959</v>
       </c>
       <c r="AC26" t="n">
-        <v>612.7555155561669</v>
+        <v>717.3123538192285</v>
       </c>
       <c r="AD26" t="n">
-        <v>495091.6327731353</v>
+        <v>579571.0286481299</v>
       </c>
       <c r="AE26" t="n">
-        <v>677406.2138615185</v>
+        <v>792994.6502655959</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.141889338271917e-06</v>
+        <v>2.1272532289774e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>14</v>
+        <v>13.41145833333333</v>
       </c>
       <c r="AH26" t="n">
-        <v>612755.5155561669</v>
+        <v>717312.3538192285</v>
       </c>
     </row>
   </sheetData>
@@ -24138,28 +24138,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>619.0107376533521</v>
+        <v>718.9244968547414</v>
       </c>
       <c r="AB2" t="n">
-        <v>846.9578000837021</v>
+        <v>983.6642133070061</v>
       </c>
       <c r="AC2" t="n">
-        <v>766.125336356451</v>
+        <v>889.7846813703788</v>
       </c>
       <c r="AD2" t="n">
-        <v>619010.7376533521</v>
+        <v>718924.4968547414</v>
       </c>
       <c r="AE2" t="n">
-        <v>846957.8000837021</v>
+        <v>983664.2133070061</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.606521124002217e-07</v>
+        <v>1.925624618347169e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.25260416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>766125.336356451</v>
+        <v>889784.6813703788</v>
       </c>
     </row>
     <row r="3">
@@ -24244,28 +24244,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>495.1630473481703</v>
+        <v>584.041574406471</v>
       </c>
       <c r="AB3" t="n">
-        <v>677.50392643367</v>
+        <v>799.1114481987174</v>
       </c>
       <c r="AC3" t="n">
-        <v>612.8439025775727</v>
+        <v>722.8453731425928</v>
       </c>
       <c r="AD3" t="n">
-        <v>495163.0473481703</v>
+        <v>584041.574406471</v>
       </c>
       <c r="AE3" t="n">
-        <v>677503.92643367</v>
+        <v>799111.4481987174</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.114367650059132e-06</v>
+        <v>2.23374700700138e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.86979166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>612843.9025775727</v>
+        <v>722845.3731425928</v>
       </c>
     </row>
     <row r="4">
@@ -24350,28 +24350,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>467.5064008668045</v>
+        <v>545.2645339445473</v>
       </c>
       <c r="AB4" t="n">
-        <v>639.6628825927348</v>
+        <v>746.054990716425</v>
       </c>
       <c r="AC4" t="n">
-        <v>578.6143548505778</v>
+        <v>674.8525494972046</v>
       </c>
       <c r="AD4" t="n">
-        <v>467506.4008668045</v>
+        <v>545264.5339445473</v>
       </c>
       <c r="AE4" t="n">
-        <v>639662.8825927349</v>
+        <v>746054.990716425</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.170595108692769e-06</v>
+        <v>2.346454799108873e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.15364583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>578614.3548505778</v>
+        <v>674852.5494972046</v>
       </c>
     </row>
     <row r="5">
@@ -24456,28 +24456,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>441.1307330581401</v>
+        <v>518.9741174819034</v>
       </c>
       <c r="AB5" t="n">
-        <v>603.5745302845801</v>
+        <v>710.0832830609195</v>
       </c>
       <c r="AC5" t="n">
-        <v>545.9702242363926</v>
+        <v>642.3139311337317</v>
       </c>
       <c r="AD5" t="n">
-        <v>441130.7330581401</v>
+        <v>518974.1174819034</v>
       </c>
       <c r="AE5" t="n">
-        <v>603574.5302845801</v>
+        <v>710083.2830609195</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.200426969950634e-06</v>
+        <v>2.406252686093926e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.80208333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>545970.2242363926</v>
+        <v>642313.9311337316</v>
       </c>
     </row>
     <row r="6">
@@ -24562,28 +24562,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>431.1054799171255</v>
+        <v>508.9488643408889</v>
       </c>
       <c r="AB6" t="n">
-        <v>589.8575366540902</v>
+        <v>696.3662894304294</v>
       </c>
       <c r="AC6" t="n">
-        <v>533.5623612260754</v>
+        <v>629.9060681234143</v>
       </c>
       <c r="AD6" t="n">
-        <v>431105.4799171255</v>
+        <v>508948.8643408889</v>
       </c>
       <c r="AE6" t="n">
-        <v>589857.5366540902</v>
+        <v>696366.2894304295</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.217557381748025e-06</v>
+        <v>2.440590551231247e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.61328125</v>
       </c>
       <c r="AH6" t="n">
-        <v>533562.3612260753</v>
+        <v>629906.0681234143</v>
       </c>
     </row>
     <row r="7">
@@ -24668,28 +24668,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>422.9287803376371</v>
+        <v>500.6015725608082</v>
       </c>
       <c r="AB7" t="n">
-        <v>578.6698155589077</v>
+        <v>684.9451565604002</v>
       </c>
       <c r="AC7" t="n">
-        <v>523.4423805301519</v>
+        <v>619.5749521448398</v>
       </c>
       <c r="AD7" t="n">
-        <v>422928.7803376371</v>
+        <v>500601.5725608082</v>
       </c>
       <c r="AE7" t="n">
-        <v>578669.8155589077</v>
+        <v>684945.1565604002</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.230182469788896e-06</v>
+        <v>2.465897506815365e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.47005208333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>523442.3805301519</v>
+        <v>619574.9521448398</v>
       </c>
     </row>
     <row r="8">
@@ -24774,28 +24774,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>416.0107758028826</v>
+        <v>493.6835680260537</v>
       </c>
       <c r="AB8" t="n">
-        <v>569.2042965536365</v>
+        <v>675.4796375551289</v>
       </c>
       <c r="AC8" t="n">
-        <v>514.8802373738043</v>
+        <v>611.0128089884922</v>
       </c>
       <c r="AD8" t="n">
-        <v>416010.7758028826</v>
+        <v>493683.5680260537</v>
       </c>
       <c r="AE8" t="n">
-        <v>569204.2965536364</v>
+        <v>675479.6375551289</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.239473109173811e-06</v>
+        <v>2.484520568888355e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.37239583333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>514880.2373738043</v>
+        <v>611012.8089884922</v>
       </c>
     </row>
     <row r="9">
@@ -24880,28 +24880,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>410.4702882986851</v>
+        <v>488.1430805218562</v>
       </c>
       <c r="AB9" t="n">
-        <v>561.6235571213358</v>
+        <v>667.8988981228282</v>
       </c>
       <c r="AC9" t="n">
-        <v>508.0229930732878</v>
+        <v>604.1555646879757</v>
       </c>
       <c r="AD9" t="n">
-        <v>410470.2882986851</v>
+        <v>488143.0805218562</v>
       </c>
       <c r="AE9" t="n">
-        <v>561623.5571213358</v>
+        <v>667898.8981228282</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.242756650216699e-06</v>
+        <v>2.491102418223741e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>508022.9930732878</v>
+        <v>604155.5646879757</v>
       </c>
     </row>
     <row r="10">
@@ -24986,28 +24986,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>404.0505640226006</v>
+        <v>481.7233562457717</v>
       </c>
       <c r="AB10" t="n">
-        <v>552.8398071485504</v>
+        <v>659.1151481500428</v>
       </c>
       <c r="AC10" t="n">
-        <v>500.0775518698346</v>
+        <v>596.2101234845226</v>
       </c>
       <c r="AD10" t="n">
-        <v>404050.5640226006</v>
+        <v>481723.3562457717</v>
       </c>
       <c r="AE10" t="n">
-        <v>552839.8071485504</v>
+        <v>659115.1481500429</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.249272824689407e-06</v>
+        <v>2.50416407271877e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.26822916666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>500077.5518698346</v>
+        <v>596210.1234845226</v>
       </c>
     </row>
     <row r="11">
@@ -25092,28 +25092,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>398.3879850630624</v>
+        <v>476.0607772862334</v>
       </c>
       <c r="AB11" t="n">
-        <v>545.0920168007576</v>
+        <v>651.36735780225</v>
       </c>
       <c r="AC11" t="n">
-        <v>493.069199758743</v>
+        <v>589.2017713734309</v>
       </c>
       <c r="AD11" t="n">
-        <v>398387.9850630624</v>
+        <v>476060.7772862334</v>
       </c>
       <c r="AE11" t="n">
-        <v>545092.0168007576</v>
+        <v>651367.35780225</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.254338132189675e-06</v>
+        <v>2.51431746820514e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.20963541666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>493069.199758743</v>
+        <v>589201.771373431</v>
       </c>
     </row>
     <row r="12">
@@ -25198,28 +25198,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>399.3441751923806</v>
+        <v>477.0169674155518</v>
       </c>
       <c r="AB12" t="n">
-        <v>546.4003183198222</v>
+        <v>652.6756593213147</v>
       </c>
       <c r="AC12" t="n">
-        <v>494.2526388170408</v>
+        <v>590.3852104317289</v>
       </c>
       <c r="AD12" t="n">
-        <v>399344.1751923807</v>
+        <v>477016.9674155518</v>
       </c>
       <c r="AE12" t="n">
-        <v>546400.3183198222</v>
+        <v>652675.6593213147</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.253829056058995e-06</v>
+        <v>2.513297026447716e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13.21614583333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>494252.6388170408</v>
+        <v>590385.2104317289</v>
       </c>
     </row>
   </sheetData>
@@ -25495,28 +25495,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>489.927673432518</v>
+        <v>585.564232785223</v>
       </c>
       <c r="AB2" t="n">
-        <v>670.3406568738783</v>
+        <v>801.1948165674729</v>
       </c>
       <c r="AC2" t="n">
-        <v>606.3642854108556</v>
+        <v>724.72990775826</v>
       </c>
       <c r="AD2" t="n">
-        <v>489927.673432518</v>
+        <v>585564.2327852231</v>
       </c>
       <c r="AE2" t="n">
-        <v>670340.6568738783</v>
+        <v>801194.8165674729</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.083300017267459e-06</v>
+        <v>2.26633138345002e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.9375</v>
       </c>
       <c r="AH2" t="n">
-        <v>606364.2854108555</v>
+        <v>724729.9077582599</v>
       </c>
     </row>
     <row r="3">
@@ -25601,28 +25601,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>421.2652324095583</v>
+        <v>495.696724111642</v>
       </c>
       <c r="AB3" t="n">
-        <v>576.3936758931554</v>
+        <v>678.2341265256093</v>
       </c>
       <c r="AC3" t="n">
-        <v>521.3834724395168</v>
+        <v>613.5044133975795</v>
       </c>
       <c r="AD3" t="n">
-        <v>421265.2324095583</v>
+        <v>495696.724111642</v>
       </c>
       <c r="AE3" t="n">
-        <v>576393.6758931554</v>
+        <v>678234.1265256093</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.213591920364903e-06</v>
+        <v>2.538910192914088e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.22526041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>521383.4724395168</v>
+        <v>613504.4133975795</v>
       </c>
     </row>
     <row r="4">
@@ -25707,28 +25707,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>390.5443294619891</v>
+        <v>465.0610725100935</v>
       </c>
       <c r="AB4" t="n">
-        <v>534.3599811697063</v>
+        <v>636.3170764548094</v>
       </c>
       <c r="AC4" t="n">
-        <v>483.3614145458126</v>
+        <v>575.5878677545877</v>
       </c>
       <c r="AD4" t="n">
-        <v>390544.3294619891</v>
+        <v>465061.0725100935</v>
       </c>
       <c r="AE4" t="n">
-        <v>534359.9811697063</v>
+        <v>636317.0764548094</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.258666449315993e-06</v>
+        <v>2.633208926346915e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.71744791666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>483361.4145458126</v>
+        <v>575587.8677545877</v>
       </c>
     </row>
     <row r="5">
@@ -25813,28 +25813,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>378.0205789156805</v>
+        <v>452.3667297631927</v>
       </c>
       <c r="AB5" t="n">
-        <v>517.2244331633668</v>
+        <v>618.9481166736231</v>
       </c>
       <c r="AC5" t="n">
-        <v>467.8612591913056</v>
+        <v>559.8765771174295</v>
       </c>
       <c r="AD5" t="n">
-        <v>378020.5789156805</v>
+        <v>452366.7297631927</v>
       </c>
       <c r="AE5" t="n">
-        <v>517224.4331633669</v>
+        <v>618948.1166736231</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.28372258452704e-06</v>
+        <v>2.685627928166928e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.44401041666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>467861.2591913056</v>
+        <v>559876.5771174295</v>
       </c>
     </row>
     <row r="6">
@@ -25919,28 +25919,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>368.1243387404828</v>
+        <v>442.470489587995</v>
       </c>
       <c r="AB6" t="n">
-        <v>503.6839607643579</v>
+        <v>605.4076442746141</v>
       </c>
       <c r="AC6" t="n">
-        <v>455.6130704738857</v>
+        <v>547.6283884000095</v>
       </c>
       <c r="AD6" t="n">
-        <v>368124.3387404828</v>
+        <v>442470.489587995</v>
       </c>
       <c r="AE6" t="n">
-        <v>503683.9607643579</v>
+        <v>605407.6442746141</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.298013861647415e-06</v>
+        <v>2.715526173649454e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.30078125</v>
       </c>
       <c r="AH6" t="n">
-        <v>455613.0704738857</v>
+        <v>547628.3884000095</v>
       </c>
     </row>
     <row r="7">
@@ -26025,28 +26025,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>360.2045706728954</v>
+        <v>434.5507215204076</v>
       </c>
       <c r="AB7" t="n">
-        <v>492.8477846987768</v>
+        <v>594.5714682090331</v>
       </c>
       <c r="AC7" t="n">
-        <v>445.811083843335</v>
+        <v>537.8264017694589</v>
       </c>
       <c r="AD7" t="n">
-        <v>360204.5706728954</v>
+        <v>434550.7215204076</v>
       </c>
       <c r="AE7" t="n">
-        <v>492847.7846987768</v>
+        <v>594571.4682090331</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.307320426154375e-06</v>
+        <v>2.734996088611173e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.203125</v>
       </c>
       <c r="AH7" t="n">
-        <v>445811.083843335</v>
+        <v>537826.4017694589</v>
       </c>
     </row>
     <row r="8">
@@ -26131,28 +26131,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>359.4783229043514</v>
+        <v>423.3499064541347</v>
       </c>
       <c r="AB8" t="n">
-        <v>491.8541004620646</v>
+        <v>579.2460188902728</v>
       </c>
       <c r="AC8" t="n">
-        <v>444.91223543553</v>
+        <v>523.963591824278</v>
       </c>
       <c r="AD8" t="n">
-        <v>359478.3229043514</v>
+        <v>423349.9064541347</v>
       </c>
       <c r="AE8" t="n">
-        <v>491854.1004620646</v>
+        <v>579246.0188902728</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.308487061021344e-06</v>
+        <v>2.737436761711787e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.19010416666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>444912.23543553</v>
+        <v>523963.591824278</v>
       </c>
     </row>
   </sheetData>
@@ -49217,28 +49217,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>420.04300854854</v>
+        <v>491.9007944773491</v>
       </c>
       <c r="AB2" t="n">
-        <v>574.7213752857989</v>
+        <v>673.0403681353731</v>
       </c>
       <c r="AC2" t="n">
-        <v>519.8707738550378</v>
+        <v>608.8063400186219</v>
       </c>
       <c r="AD2" t="n">
-        <v>420043.00854854</v>
+        <v>491900.794477349</v>
       </c>
       <c r="AE2" t="n">
-        <v>574721.3752857989</v>
+        <v>673040.3681353731</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.180224939756748e-06</v>
+        <v>2.56563879501913e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.13020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>519870.7738550378</v>
+        <v>608806.3400186219</v>
       </c>
     </row>
     <row r="3">
@@ -49323,28 +49323,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>356.5236352188702</v>
+        <v>428.3813316391282</v>
       </c>
       <c r="AB3" t="n">
-        <v>487.8113664191682</v>
+        <v>586.1302367991941</v>
       </c>
       <c r="AC3" t="n">
-        <v>441.2553342556749</v>
+        <v>530.1907896380324</v>
       </c>
       <c r="AD3" t="n">
-        <v>356523.6352188702</v>
+        <v>428381.3316391282</v>
       </c>
       <c r="AE3" t="n">
-        <v>487811.3664191682</v>
+        <v>586130.2367991941</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.295010934943409e-06</v>
+        <v>2.815166992954409e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.7890625</v>
       </c>
       <c r="AH3" t="n">
-        <v>441255.3342556749</v>
+        <v>530190.7896380323</v>
       </c>
     </row>
     <row r="4">
@@ -49429,28 +49429,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>340.004106831565</v>
+        <v>411.6912110512308</v>
       </c>
       <c r="AB4" t="n">
-        <v>465.2086188895003</v>
+        <v>563.2940774946793</v>
       </c>
       <c r="AC4" t="n">
-        <v>420.809761227083</v>
+        <v>509.5340813267894</v>
       </c>
       <c r="AD4" t="n">
-        <v>340004.106831565</v>
+        <v>411691.2110512308</v>
       </c>
       <c r="AE4" t="n">
-        <v>465208.6188895003</v>
+        <v>563294.0774946793</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.331764395767811e-06</v>
+        <v>2.895063715829743e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.41145833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>420809.761227083</v>
+        <v>509534.0813267893</v>
       </c>
     </row>
     <row r="5">
@@ -49535,28 +49535,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>328.8289211109844</v>
+        <v>400.5160253306502</v>
       </c>
       <c r="AB5" t="n">
-        <v>449.918236772203</v>
+        <v>548.003695377382</v>
       </c>
       <c r="AC5" t="n">
-        <v>406.9786717188745</v>
+        <v>495.7029918185808</v>
       </c>
       <c r="AD5" t="n">
-        <v>328828.9211109843</v>
+        <v>400516.0253306502</v>
       </c>
       <c r="AE5" t="n">
-        <v>449918.236772203</v>
+        <v>548003.695377382</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.349784562754104e-06</v>
+        <v>2.93423695980668e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.22916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>406978.6717188745</v>
+        <v>495702.9918185808</v>
       </c>
     </row>
     <row r="6">
@@ -49641,28 +49641,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>328.7953734973145</v>
+        <v>400.4824777169803</v>
       </c>
       <c r="AB6" t="n">
-        <v>449.8723354471637</v>
+        <v>547.9577940523427</v>
       </c>
       <c r="AC6" t="n">
-        <v>406.937151151874</v>
+        <v>495.6614712515803</v>
       </c>
       <c r="AD6" t="n">
-        <v>328795.3734973145</v>
+        <v>400482.4777169803</v>
       </c>
       <c r="AE6" t="n">
-        <v>449872.3354471637</v>
+        <v>547957.7940523427</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.351430240104451e-06</v>
+        <v>2.937814425010053e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.21614583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>406937.151151874</v>
+        <v>495661.4712515803</v>
       </c>
     </row>
   </sheetData>
@@ -49938,28 +49938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>278.2136134028626</v>
+        <v>344.8002547901466</v>
       </c>
       <c r="AB2" t="n">
-        <v>380.6641397761713</v>
+        <v>471.7709201175462</v>
       </c>
       <c r="AC2" t="n">
-        <v>344.3340885414084</v>
+        <v>426.7457656361718</v>
       </c>
       <c r="AD2" t="n">
-        <v>278213.6134028626</v>
+        <v>344800.2547901466</v>
       </c>
       <c r="AE2" t="n">
-        <v>380664.1397761713</v>
+        <v>471770.9201175462</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.385496555387342e-06</v>
+        <v>3.295440914857123e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.83463541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>344334.0885414084</v>
+        <v>426745.7656361718</v>
       </c>
     </row>
     <row r="3">
@@ -50044,28 +50044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>267.3811330786125</v>
+        <v>333.7971822653043</v>
       </c>
       <c r="AB3" t="n">
-        <v>365.8426623012286</v>
+        <v>456.7160308677564</v>
       </c>
       <c r="AC3" t="n">
-        <v>330.9271520745999</v>
+        <v>413.1276938867122</v>
       </c>
       <c r="AD3" t="n">
-        <v>267381.1330786125</v>
+        <v>333797.1822653043</v>
       </c>
       <c r="AE3" t="n">
-        <v>365842.6623012286</v>
+        <v>456716.0308677565</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.424384897850088e-06</v>
+        <v>3.387937885971484e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.45703125</v>
       </c>
       <c r="AH3" t="n">
-        <v>330927.1520745999</v>
+        <v>413127.6938867122</v>
       </c>
     </row>
   </sheetData>
@@ -50341,28 +50341,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>744.8511964377639</v>
+        <v>859.998418594728</v>
       </c>
       <c r="AB2" t="n">
-        <v>1019.138267481757</v>
+        <v>1176.687776773833</v>
       </c>
       <c r="AC2" t="n">
-        <v>921.8731416028395</v>
+        <v>1064.386346850205</v>
       </c>
       <c r="AD2" t="n">
-        <v>744851.1964377639</v>
+        <v>859998.418594728</v>
       </c>
       <c r="AE2" t="n">
-        <v>1019138.267481757</v>
+        <v>1176687.776773833</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.581007374801945e-07</v>
+        <v>1.665211580257505e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.67838541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>921873.1416028395</v>
+        <v>1064386.346850205</v>
       </c>
     </row>
     <row r="3">
@@ -50447,28 +50447,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>578.0610704492213</v>
+        <v>670.24712085845</v>
       </c>
       <c r="AB3" t="n">
-        <v>790.9286588431949</v>
+        <v>917.0616799746138</v>
       </c>
       <c r="AC3" t="n">
-        <v>715.4435377185442</v>
+        <v>829.5386003419874</v>
       </c>
       <c r="AD3" t="n">
-        <v>578061.0704492213</v>
+        <v>670247.12085845</v>
       </c>
       <c r="AE3" t="n">
-        <v>790928.6588431948</v>
+        <v>917061.6799746137</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.031468845164473e-06</v>
+        <v>2.001645949736011e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.54036458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>715443.5377185442</v>
+        <v>829538.6003419873</v>
       </c>
     </row>
     <row r="4">
@@ -50553,28 +50553,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>529.0752781027579</v>
+        <v>621.1759876574149</v>
       </c>
       <c r="AB4" t="n">
-        <v>723.9041366541281</v>
+        <v>849.9203906633492</v>
       </c>
       <c r="AC4" t="n">
-        <v>654.8157418576943</v>
+        <v>768.8051814491986</v>
       </c>
       <c r="AD4" t="n">
-        <v>529075.2781027579</v>
+        <v>621175.9876574149</v>
       </c>
       <c r="AE4" t="n">
-        <v>723904.1366541281</v>
+        <v>849920.3906633492</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.09700504264467e-06</v>
+        <v>2.128824065548534e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.609375</v>
       </c>
       <c r="AH4" t="n">
-        <v>654815.7418576943</v>
+        <v>768805.1814491986</v>
       </c>
     </row>
     <row r="5">
@@ -50659,28 +50659,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>510.3714074163395</v>
+        <v>590.9489501783939</v>
       </c>
       <c r="AB5" t="n">
-        <v>698.3126756244325</v>
+        <v>808.5624244617746</v>
       </c>
       <c r="AC5" t="n">
-        <v>631.6666939508317</v>
+        <v>731.3943614956322</v>
       </c>
       <c r="AD5" t="n">
-        <v>510371.4074163396</v>
+        <v>590948.950178394</v>
       </c>
       <c r="AE5" t="n">
-        <v>698312.6756244325</v>
+        <v>808562.4244617746</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.130881003475907e-06</v>
+        <v>2.194563016471911e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.17317708333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>631666.6939508317</v>
+        <v>731394.3614956322</v>
       </c>
     </row>
     <row r="6">
@@ -50765,28 +50765,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>487.062376905365</v>
+        <v>579.0777456054503</v>
       </c>
       <c r="AB6" t="n">
-        <v>666.4202317574662</v>
+        <v>792.3197186444896</v>
       </c>
       <c r="AC6" t="n">
-        <v>602.8180201652026</v>
+        <v>716.7018367247682</v>
       </c>
       <c r="AD6" t="n">
-        <v>487062.376905365</v>
+        <v>579077.7456054504</v>
       </c>
       <c r="AE6" t="n">
-        <v>666420.2317574662</v>
+        <v>792319.7186444897</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.151241046795262e-06</v>
+        <v>2.23407327258647e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.91927083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>602818.0201652026</v>
+        <v>716701.8367247682</v>
       </c>
     </row>
     <row r="7">
@@ -50871,28 +50871,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>478.52725737546</v>
+        <v>559.1900514835349</v>
       </c>
       <c r="AB7" t="n">
-        <v>654.7421046737517</v>
+        <v>765.1084981637431</v>
       </c>
       <c r="AC7" t="n">
-        <v>592.2544371400035</v>
+        <v>692.0876169355163</v>
       </c>
       <c r="AD7" t="n">
-        <v>478527.2573754599</v>
+        <v>559190.051483535</v>
       </c>
       <c r="AE7" t="n">
-        <v>654742.1046737516</v>
+        <v>765108.4981637431</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.165347824089083e-06</v>
+        <v>2.261448577004418e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.75651041666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>592254.4371400034</v>
+        <v>692087.6169355162</v>
       </c>
     </row>
     <row r="8">
@@ -50977,28 +50977,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>471.3830066606827</v>
+        <v>552.0458007687577</v>
       </c>
       <c r="AB8" t="n">
-        <v>644.9670256636962</v>
+        <v>755.3334191536878</v>
       </c>
       <c r="AC8" t="n">
-        <v>583.4122779512583</v>
+        <v>683.245457746771</v>
       </c>
       <c r="AD8" t="n">
-        <v>471383.0066606827</v>
+        <v>552045.8007687577</v>
       </c>
       <c r="AE8" t="n">
-        <v>644967.0256636962</v>
+        <v>755333.4191536878</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.175269344594162e-06</v>
+        <v>2.280702063357703e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.63932291666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>583412.2779512582</v>
+        <v>683245.4577467709</v>
       </c>
     </row>
     <row r="9">
@@ -51083,28 +51083,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>465.5368998659968</v>
+        <v>546.1996939740718</v>
       </c>
       <c r="AB9" t="n">
-        <v>636.9681244351776</v>
+        <v>747.3345179251691</v>
       </c>
       <c r="AC9" t="n">
-        <v>576.1767806294611</v>
+        <v>676.0099604249739</v>
       </c>
       <c r="AD9" t="n">
-        <v>465536.8998659967</v>
+        <v>546199.6939740718</v>
       </c>
       <c r="AE9" t="n">
-        <v>636968.1244351777</v>
+        <v>747334.5179251691</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.18194113629857e-06</v>
+        <v>2.293649196860782e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.56119791666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>576176.780629461</v>
+        <v>676009.9604249739</v>
       </c>
     </row>
     <row r="10">
@@ -51189,28 +51189,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>459.2873706484983</v>
+        <v>539.7795725559811</v>
       </c>
       <c r="AB10" t="n">
-        <v>628.4172428500259</v>
+        <v>738.5502245651702</v>
       </c>
       <c r="AC10" t="n">
-        <v>568.4419831815583</v>
+        <v>668.0640276944202</v>
       </c>
       <c r="AD10" t="n">
-        <v>459287.3706484982</v>
+        <v>539779.5725559811</v>
       </c>
       <c r="AE10" t="n">
-        <v>628417.2428500259</v>
+        <v>738550.2245651702</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.190410126506379e-06</v>
+        <v>2.310083934591626e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.46354166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>568441.9831815583</v>
+        <v>668064.0276944202</v>
       </c>
     </row>
     <row r="11">
@@ -51295,28 +51295,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>455.1424575287463</v>
+        <v>535.6346594362292</v>
       </c>
       <c r="AB11" t="n">
-        <v>622.74598985892</v>
+        <v>732.8789715740646</v>
       </c>
       <c r="AC11" t="n">
-        <v>563.3119866162701</v>
+        <v>662.9340311291319</v>
       </c>
       <c r="AD11" t="n">
-        <v>455142.4575287463</v>
+        <v>535634.6594362292</v>
       </c>
       <c r="AE11" t="n">
-        <v>622745.98985892</v>
+        <v>732878.9715740646</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.193265948785756e-06</v>
+        <v>2.315625881035747e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.43098958333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>563311.9866162702</v>
+        <v>662934.0311291319</v>
       </c>
     </row>
     <row r="12">
@@ -51401,28 +51401,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>450.1588467352957</v>
+        <v>530.6510486427785</v>
       </c>
       <c r="AB12" t="n">
-        <v>615.9271937099298</v>
+        <v>726.0601754250742</v>
       </c>
       <c r="AC12" t="n">
-        <v>557.143966801499</v>
+        <v>656.7660113143609</v>
       </c>
       <c r="AD12" t="n">
-        <v>450158.8467352957</v>
+        <v>530651.0486427785</v>
       </c>
       <c r="AE12" t="n">
-        <v>615927.1937099298</v>
+        <v>726060.1754250743</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.198903735871769e-06</v>
+        <v>2.326566447722851e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13.36588541666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>557143.966801499</v>
+        <v>656766.0113143609</v>
       </c>
     </row>
     <row r="13">
@@ -51507,28 +51507,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>445.4640635764817</v>
+        <v>525.9562654839647</v>
       </c>
       <c r="AB13" t="n">
-        <v>609.5035842728253</v>
+        <v>719.6365659879698</v>
       </c>
       <c r="AC13" t="n">
-        <v>551.3334176334794</v>
+        <v>650.9554621463411</v>
       </c>
       <c r="AD13" t="n">
-        <v>445464.0635764817</v>
+        <v>525956.2654839647</v>
       </c>
       <c r="AE13" t="n">
-        <v>609503.5842728253</v>
+        <v>719636.5659879697</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.201611843205661e-06</v>
+        <v>2.33182174176469e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>14</v>
+        <v>13.33984375</v>
       </c>
       <c r="AH13" t="n">
-        <v>551333.4176334793</v>
+        <v>650955.4621463411</v>
       </c>
     </row>
     <row r="14">
@@ -51613,28 +51613,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>441.1384417007989</v>
+        <v>521.6306436082817</v>
       </c>
       <c r="AB14" t="n">
-        <v>603.5850775895472</v>
+        <v>713.7180593046916</v>
       </c>
       <c r="AC14" t="n">
-        <v>545.979764921377</v>
+        <v>645.6018094342387</v>
       </c>
       <c r="AD14" t="n">
-        <v>441138.4417007989</v>
+        <v>521630.6436082817</v>
       </c>
       <c r="AE14" t="n">
-        <v>603585.0775895471</v>
+        <v>713718.0593046916</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.204886191163913e-06</v>
+        <v>2.338175870015278e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>14</v>
+        <v>13.30078125</v>
       </c>
       <c r="AH14" t="n">
-        <v>545979.7649213769</v>
+        <v>645601.8094342387</v>
       </c>
     </row>
     <row r="15">
@@ -51719,28 +51719,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>436.4649249270307</v>
+        <v>516.9571268345136</v>
       </c>
       <c r="AB15" t="n">
-        <v>597.1905657586691</v>
+        <v>707.3235474738135</v>
       </c>
       <c r="AC15" t="n">
-        <v>540.1955363248842</v>
+        <v>639.8175808377459</v>
       </c>
       <c r="AD15" t="n">
-        <v>436464.9249270307</v>
+        <v>516957.1268345136</v>
       </c>
       <c r="AE15" t="n">
-        <v>597190.5657586691</v>
+        <v>707323.5474738135</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.207692775128129e-06</v>
+        <v>2.34362226565864e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>13.27473958333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>540195.5363248842</v>
+        <v>639817.5808377459</v>
       </c>
     </row>
     <row r="16">
@@ -51825,28 +51825,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>436.0723248144496</v>
+        <v>516.5645267219326</v>
       </c>
       <c r="AB16" t="n">
-        <v>596.6533929643412</v>
+        <v>706.7863746794856</v>
       </c>
       <c r="AC16" t="n">
-        <v>539.7096305481201</v>
+        <v>639.3316750609819</v>
       </c>
       <c r="AD16" t="n">
-        <v>436072.3248144496</v>
+        <v>516564.5267219325</v>
       </c>
       <c r="AE16" t="n">
-        <v>596653.3929643411</v>
+        <v>706786.3746794856</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.207028057873446e-06</v>
+        <v>2.34233232984837e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>14</v>
+        <v>13.28125</v>
       </c>
       <c r="AH16" t="n">
-        <v>539709.6305481201</v>
+        <v>639331.6750609819</v>
       </c>
     </row>
     <row r="17">
@@ -51931,28 +51931,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>437.3265903730413</v>
+        <v>517.8187922805241</v>
       </c>
       <c r="AB17" t="n">
-        <v>598.3695344358973</v>
+        <v>708.5025161510417</v>
       </c>
       <c r="AC17" t="n">
-        <v>541.2619858862507</v>
+        <v>640.8840303991124</v>
       </c>
       <c r="AD17" t="n">
-        <v>437326.5903730413</v>
+        <v>517818.7922805242</v>
       </c>
       <c r="AE17" t="n">
-        <v>598369.5344358974</v>
+        <v>708502.5161510417</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.207028057873446e-06</v>
+        <v>2.34233232984837e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>14</v>
+        <v>13.28125</v>
       </c>
       <c r="AH17" t="n">
-        <v>541261.9858862507</v>
+        <v>640884.0303991124</v>
       </c>
     </row>
   </sheetData>
@@ -52228,28 +52228,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>943.1401999698155</v>
+        <v>1074.909996860613</v>
       </c>
       <c r="AB2" t="n">
-        <v>1290.446030007751</v>
+        <v>1470.739279386898</v>
       </c>
       <c r="AC2" t="n">
-        <v>1167.287672056189</v>
+        <v>1330.373986757755</v>
       </c>
       <c r="AD2" t="n">
-        <v>943140.1999698156</v>
+        <v>1074909.996860613</v>
       </c>
       <c r="AE2" t="n">
-        <v>1290446.030007751</v>
+        <v>1470739.279386899</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.41202797995181e-07</v>
+        <v>1.390787170452281e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.83984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1167287.672056189</v>
+        <v>1330373.986757755</v>
       </c>
     </row>
     <row r="3">
@@ -52334,28 +52334,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>690.7601324476503</v>
+        <v>798.5562679301989</v>
       </c>
       <c r="AB3" t="n">
-        <v>945.1284874011592</v>
+        <v>1092.619915598244</v>
       </c>
       <c r="AC3" t="n">
-        <v>854.9267510597552</v>
+        <v>988.34180435523</v>
       </c>
       <c r="AD3" t="n">
-        <v>690760.1324476503</v>
+        <v>798556.2679301989</v>
       </c>
       <c r="AE3" t="n">
-        <v>945128.4874011592</v>
+        <v>1092619.915598244</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.335553981342498e-07</v>
+        <v>1.751716094628164e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.54296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>854926.7510597552</v>
+        <v>988341.8043552301</v>
       </c>
     </row>
     <row r="4">
@@ -52440,28 +52440,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>623.6222124676467</v>
+        <v>719.3462659000503</v>
       </c>
       <c r="AB4" t="n">
-        <v>853.2674233685306</v>
+        <v>984.2412963219348</v>
       </c>
       <c r="AC4" t="n">
-        <v>771.8327780505874</v>
+        <v>890.3066883923038</v>
       </c>
       <c r="AD4" t="n">
-        <v>623622.2124676467</v>
+        <v>719346.2659000503</v>
       </c>
       <c r="AE4" t="n">
-        <v>853267.4233685306</v>
+        <v>984241.2963219348</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.009898598337447e-06</v>
+        <v>1.894965882245084e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.29296875</v>
       </c>
       <c r="AH4" t="n">
-        <v>771832.7780505874</v>
+        <v>890306.6883923039</v>
       </c>
     </row>
     <row r="5">
@@ -52546,28 +52546,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>586.1288009506465</v>
+        <v>681.9381057290706</v>
       </c>
       <c r="AB5" t="n">
-        <v>801.9672836383946</v>
+        <v>933.0578012444482</v>
       </c>
       <c r="AC5" t="n">
-        <v>725.4286516560974</v>
+        <v>844.0080742485262</v>
       </c>
       <c r="AD5" t="n">
-        <v>586128.8009506464</v>
+        <v>681938.1057290706</v>
       </c>
       <c r="AE5" t="n">
-        <v>801967.2836383947</v>
+        <v>933057.8012444482</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.049564798070121e-06</v>
+        <v>1.969395231187126e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.71354166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>725428.6516560974</v>
+        <v>844008.0742485262</v>
       </c>
     </row>
     <row r="6">
@@ -52652,28 +52652,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>570.975119504071</v>
+        <v>654.7976830869218</v>
       </c>
       <c r="AB6" t="n">
-        <v>781.2333481499475</v>
+        <v>895.9230776345179</v>
       </c>
       <c r="AC6" t="n">
-        <v>706.6735338704063</v>
+        <v>810.4174365410157</v>
       </c>
       <c r="AD6" t="n">
-        <v>570975.1195040711</v>
+        <v>654797.6830869218</v>
       </c>
       <c r="AE6" t="n">
-        <v>781233.3481499475</v>
+        <v>895923.0776345179</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.073597011185671e-06</v>
+        <v>2.014489089128686e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.38802083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>706673.5338704063</v>
+        <v>810417.4365410157</v>
       </c>
     </row>
     <row r="7">
@@ -52758,28 +52758,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>560.0865526302133</v>
+        <v>643.9091162130642</v>
       </c>
       <c r="AB7" t="n">
-        <v>766.3351305834677</v>
+        <v>881.0248600680382</v>
       </c>
       <c r="AC7" t="n">
-        <v>693.1971812786917</v>
+        <v>796.9410839493012</v>
       </c>
       <c r="AD7" t="n">
-        <v>560086.5526302133</v>
+        <v>643909.1162130642</v>
       </c>
       <c r="AE7" t="n">
-        <v>766335.1305834678</v>
+        <v>881024.8600680381</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.090227397556846e-06</v>
+        <v>2.045694216884889e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.16666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>693197.1812786917</v>
+        <v>796941.0839493012</v>
       </c>
     </row>
     <row r="8">
@@ -52864,28 +52864,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>539.2660057343506</v>
+        <v>634.9899696582032</v>
       </c>
       <c r="AB8" t="n">
-        <v>737.8475397828464</v>
+        <v>868.8212902667021</v>
       </c>
       <c r="AC8" t="n">
-        <v>667.428406161497</v>
+        <v>785.902205721987</v>
       </c>
       <c r="AD8" t="n">
-        <v>539266.0057343506</v>
+        <v>634989.9696582032</v>
       </c>
       <c r="AE8" t="n">
-        <v>737847.5397828465</v>
+        <v>868821.2902667022</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.104224441720888e-06</v>
+        <v>2.071958161786686e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.984375</v>
       </c>
       <c r="AH8" t="n">
-        <v>667428.406161497</v>
+        <v>785902.2057219869</v>
       </c>
     </row>
     <row r="9">
@@ -52970,28 +52970,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>532.5562757166362</v>
+        <v>628.2802396404886</v>
       </c>
       <c r="AB9" t="n">
-        <v>728.6669911602125</v>
+        <v>859.6407416440684</v>
       </c>
       <c r="AC9" t="n">
-        <v>659.1240362144264</v>
+        <v>777.5978357749162</v>
       </c>
       <c r="AD9" t="n">
-        <v>532556.2757166361</v>
+        <v>628280.2396404886</v>
       </c>
       <c r="AE9" t="n">
-        <v>728666.9911602126</v>
+        <v>859640.7416440684</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.113476725151356e-06</v>
+        <v>2.089319074518383e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.87369791666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>659124.0362144264</v>
+        <v>777597.8357749162</v>
       </c>
     </row>
     <row r="10">
@@ -53076,28 +53076,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>527.8992336255244</v>
+        <v>611.8070485543958</v>
       </c>
       <c r="AB10" t="n">
-        <v>722.2950207169569</v>
+        <v>837.1013948541765</v>
       </c>
       <c r="AC10" t="n">
-        <v>653.3601976871582</v>
+        <v>757.2096126084799</v>
       </c>
       <c r="AD10" t="n">
-        <v>527899.2336255244</v>
+        <v>611807.0485543958</v>
       </c>
       <c r="AE10" t="n">
-        <v>722295.0207169568</v>
+        <v>837101.3948541766</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.11855361913628e-06</v>
+        <v>2.09884531894039e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.80859375</v>
       </c>
       <c r="AH10" t="n">
-        <v>653360.1976871582</v>
+        <v>757209.6126084799</v>
       </c>
     </row>
     <row r="11">
@@ -53182,28 +53182,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>522.7389702236052</v>
+        <v>606.6467851524765</v>
       </c>
       <c r="AB11" t="n">
-        <v>715.2345206756967</v>
+        <v>830.0408948129163</v>
       </c>
       <c r="AC11" t="n">
-        <v>646.9735418603618</v>
+        <v>750.8229567816835</v>
       </c>
       <c r="AD11" t="n">
-        <v>522738.9702236052</v>
+        <v>606646.7851524765</v>
       </c>
       <c r="AE11" t="n">
-        <v>715234.5206756967</v>
+        <v>830040.8948129164</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.124413398642243e-06</v>
+        <v>2.109840563670465e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.73697916666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>646973.5418603618</v>
+        <v>750822.9567816835</v>
       </c>
     </row>
     <row r="12">
@@ -53288,28 +53288,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>518.732736517929</v>
+        <v>602.6405514468004</v>
       </c>
       <c r="AB12" t="n">
-        <v>709.7530149770332</v>
+        <v>824.559389114253</v>
       </c>
       <c r="AC12" t="n">
-        <v>642.0151833722373</v>
+        <v>745.8645982935591</v>
       </c>
       <c r="AD12" t="n">
-        <v>518732.736517929</v>
+        <v>602640.5514468004</v>
       </c>
       <c r="AE12" t="n">
-        <v>709753.0149770333</v>
+        <v>824559.389114253</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.129798702074849e-06</v>
+        <v>2.119945505183529e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13.671875</v>
       </c>
       <c r="AH12" t="n">
-        <v>642015.1833722373</v>
+        <v>745864.598293559</v>
       </c>
     </row>
     <row r="13">
@@ -53394,28 +53394,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>514.4506968463244</v>
+        <v>598.3585117751957</v>
       </c>
       <c r="AB13" t="n">
-        <v>703.8941393880862</v>
+        <v>818.700513525306</v>
       </c>
       <c r="AC13" t="n">
-        <v>636.7154706465159</v>
+        <v>740.5648855678376</v>
       </c>
       <c r="AD13" t="n">
-        <v>514450.6968463244</v>
+        <v>598358.5117751957</v>
       </c>
       <c r="AE13" t="n">
-        <v>703894.1393880862</v>
+        <v>818700.5135253059</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.133404720232365e-06</v>
+        <v>2.126711809632805e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>14</v>
+        <v>13.62630208333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>636715.4706465158</v>
+        <v>740564.8855678375</v>
       </c>
     </row>
     <row r="14">
@@ -53500,28 +53500,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>509.2259111161716</v>
+        <v>593.1337260450429</v>
       </c>
       <c r="AB14" t="n">
-        <v>696.7453570508125</v>
+        <v>811.5517311880324</v>
       </c>
       <c r="AC14" t="n">
-        <v>630.2489580621326</v>
+        <v>734.0983729834543</v>
       </c>
       <c r="AD14" t="n">
-        <v>509225.9111161716</v>
+        <v>593133.7260450429</v>
       </c>
       <c r="AE14" t="n">
-        <v>696745.3570508125</v>
+        <v>811551.7311880323</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.139881318633693e-06</v>
+        <v>2.138864448544993e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>14</v>
+        <v>13.54817708333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>630248.9580621326</v>
+        <v>734098.3729834543</v>
       </c>
     </row>
     <row r="15">
@@ -53606,28 +53606,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>505.1150061116867</v>
+        <v>589.0228210405579</v>
       </c>
       <c r="AB15" t="n">
-        <v>691.1206354633474</v>
+        <v>805.9270096005672</v>
       </c>
       <c r="AC15" t="n">
-        <v>625.1610520086289</v>
+        <v>729.0104669299506</v>
       </c>
       <c r="AD15" t="n">
-        <v>505115.0061116868</v>
+        <v>589022.8210405579</v>
       </c>
       <c r="AE15" t="n">
-        <v>691120.6354633474</v>
+        <v>805927.0096005672</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.143155203539858e-06</v>
+        <v>2.145007540742363e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>13.50911458333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>625161.0520086288</v>
+        <v>729010.4669299505</v>
       </c>
     </row>
     <row r="16">
@@ -53712,28 +53712,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>503.8237355492455</v>
+        <v>587.7315504781168</v>
       </c>
       <c r="AB16" t="n">
-        <v>689.3538621129786</v>
+        <v>804.1602362501983</v>
       </c>
       <c r="AC16" t="n">
-        <v>623.5628970271372</v>
+        <v>727.4123119484589</v>
       </c>
       <c r="AD16" t="n">
-        <v>503823.7355492455</v>
+        <v>587731.5504781168</v>
       </c>
       <c r="AE16" t="n">
-        <v>689353.8621129786</v>
+        <v>804160.2362501983</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.142182527589476e-06</v>
+        <v>2.143182419147492e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>14</v>
+        <v>13.52213541666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>623562.8970271372</v>
+        <v>727412.3119484589</v>
       </c>
     </row>
     <row r="17">
@@ -53818,28 +53818,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>500.116378166933</v>
+        <v>583.853600895212</v>
       </c>
       <c r="AB17" t="n">
-        <v>684.2812921854342</v>
+        <v>798.8542545478069</v>
       </c>
       <c r="AC17" t="n">
-        <v>618.974446054081</v>
+        <v>722.6127256927517</v>
       </c>
       <c r="AD17" t="n">
-        <v>500116.378166933</v>
+        <v>583853.600895212</v>
       </c>
       <c r="AE17" t="n">
-        <v>684281.2921854341</v>
+        <v>798854.2545478069</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.146073231391006e-06</v>
+        <v>2.150482905526974e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>14</v>
+        <v>13.4765625</v>
       </c>
       <c r="AH17" t="n">
-        <v>618974.446054081</v>
+        <v>722612.7256927517</v>
       </c>
     </row>
     <row r="18">
@@ -53924,28 +53924,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>496.347775353024</v>
+        <v>580.0849980813031</v>
       </c>
       <c r="AB18" t="n">
-        <v>679.1249235564218</v>
+        <v>793.6978859187947</v>
       </c>
       <c r="AC18" t="n">
-        <v>614.3101940100128</v>
+        <v>717.9484736486834</v>
       </c>
       <c r="AD18" t="n">
-        <v>496347.775353024</v>
+        <v>580084.9980813031</v>
       </c>
       <c r="AE18" t="n">
-        <v>679124.9235564218</v>
+        <v>793697.8859187947</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.149181049671497e-06</v>
+        <v>2.15631439159839e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>14</v>
+        <v>13.4375</v>
       </c>
       <c r="AH18" t="n">
-        <v>614310.1940100128</v>
+        <v>717948.4736486834</v>
       </c>
     </row>
     <row r="19">
@@ -54030,28 +54030,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>493.965763979326</v>
+        <v>577.7029867076051</v>
       </c>
       <c r="AB19" t="n">
-        <v>675.865750508003</v>
+        <v>790.4387128703758</v>
       </c>
       <c r="AC19" t="n">
-        <v>611.3620718630569</v>
+        <v>715.0003515017274</v>
       </c>
       <c r="AD19" t="n">
-        <v>493965.7639793259</v>
+        <v>577702.9867076051</v>
       </c>
       <c r="AE19" t="n">
-        <v>675865.7505080029</v>
+        <v>790438.7128703757</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.149062430653157e-06</v>
+        <v>2.156091815794138e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>14</v>
+        <v>13.44401041666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>611362.071863057</v>
+        <v>715000.3515017275</v>
       </c>
     </row>
     <row r="20">
@@ -54136,28 +54136,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>490.7106575844224</v>
+        <v>574.4478803127016</v>
       </c>
       <c r="AB20" t="n">
-        <v>671.4119703333369</v>
+        <v>785.9849326957096</v>
       </c>
       <c r="AC20" t="n">
-        <v>607.3333542173413</v>
+        <v>710.9716338560117</v>
       </c>
       <c r="AD20" t="n">
-        <v>490710.6575844224</v>
+        <v>574447.8803127016</v>
       </c>
       <c r="AE20" t="n">
-        <v>671411.9703333369</v>
+        <v>785984.9326957096</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.151909287093301e-06</v>
+        <v>2.161433635096198e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>14</v>
+        <v>13.41145833333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>607333.3542173413</v>
+        <v>710971.6338560118</v>
       </c>
     </row>
     <row r="21">
@@ -54242,28 +54242,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>488.2651636433917</v>
+        <v>572.0023863716708</v>
       </c>
       <c r="AB21" t="n">
-        <v>668.0659376356404</v>
+        <v>782.638899998013</v>
       </c>
       <c r="AC21" t="n">
-        <v>604.3066621841265</v>
+        <v>707.9449418227971</v>
       </c>
       <c r="AD21" t="n">
-        <v>488265.1636433917</v>
+        <v>572002.3863716708</v>
       </c>
       <c r="AE21" t="n">
-        <v>668065.9376356404</v>
+        <v>782638.899998013</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.151695772860291e-06</v>
+        <v>2.161032998648544e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>14</v>
+        <v>13.41145833333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>604306.6621841264</v>
+        <v>707944.9418227971</v>
       </c>
     </row>
     <row r="22">
@@ -54348,28 +54348,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>484.988067237182</v>
+        <v>568.7252899654611</v>
       </c>
       <c r="AB22" t="n">
-        <v>663.5820697573744</v>
+        <v>778.1550321197471</v>
       </c>
       <c r="AC22" t="n">
-        <v>600.2507283630141</v>
+        <v>703.8890080016847</v>
       </c>
       <c r="AD22" t="n">
-        <v>484988.0672371819</v>
+        <v>568725.2899654611</v>
       </c>
       <c r="AE22" t="n">
-        <v>663582.0697573744</v>
+        <v>778155.0321197471</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.155254343410471e-06</v>
+        <v>2.167710272776119e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>14</v>
+        <v>13.37239583333333</v>
       </c>
       <c r="AH22" t="n">
-        <v>600250.7283630141</v>
+        <v>703889.0080016847</v>
       </c>
     </row>
     <row r="23">
@@ -54454,28 +54454,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>483.2385161133163</v>
+        <v>566.9757388415953</v>
       </c>
       <c r="AB23" t="n">
-        <v>661.188256724953</v>
+        <v>775.7612190873259</v>
       </c>
       <c r="AC23" t="n">
-        <v>598.0853774866695</v>
+        <v>701.7236571253401</v>
       </c>
       <c r="AD23" t="n">
-        <v>483238.5161133163</v>
+        <v>566975.7388415954</v>
       </c>
       <c r="AE23" t="n">
-        <v>661188.2567249531</v>
+        <v>775761.219087326</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.154969657766456e-06</v>
+        <v>2.167176090845913e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>14</v>
+        <v>13.37239583333333</v>
       </c>
       <c r="AH23" t="n">
-        <v>598085.3774866695</v>
+        <v>701723.6571253401</v>
       </c>
     </row>
     <row r="24">
@@ -54560,28 +54560,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>484.493785240163</v>
+        <v>568.2310079684421</v>
       </c>
       <c r="AB24" t="n">
-        <v>662.9057713228704</v>
+        <v>777.478733685243</v>
       </c>
       <c r="AC24" t="n">
-        <v>599.6389749019083</v>
+        <v>703.277254540579</v>
       </c>
       <c r="AD24" t="n">
-        <v>484493.785240163</v>
+        <v>568231.007968442</v>
       </c>
       <c r="AE24" t="n">
-        <v>662905.7713228704</v>
+        <v>777478.7336852431</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.155017105373792e-06</v>
+        <v>2.167265121167614e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>14</v>
+        <v>13.37239583333333</v>
       </c>
       <c r="AH24" t="n">
-        <v>599638.9749019083</v>
+        <v>703277.2545405789</v>
       </c>
     </row>
   </sheetData>
@@ -54857,28 +54857,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>235.8326300224481</v>
+        <v>299.9539807650848</v>
       </c>
       <c r="AB2" t="n">
-        <v>322.6766085979078</v>
+        <v>410.4102695184806</v>
       </c>
       <c r="AC2" t="n">
-        <v>291.8808059528838</v>
+        <v>371.2412894100671</v>
       </c>
       <c r="AD2" t="n">
-        <v>235832.6300224481</v>
+        <v>299953.9807650848</v>
       </c>
       <c r="AE2" t="n">
-        <v>322676.6085979078</v>
+        <v>410410.2695184806</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.435507819325736e-06</v>
+        <v>3.590096116117553e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>291880.8059528838</v>
+        <v>371241.2894100671</v>
       </c>
     </row>
   </sheetData>
@@ -55154,28 +55154,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>536.8455206268359</v>
+        <v>623.2718450755586</v>
       </c>
       <c r="AB2" t="n">
-        <v>734.5357252744781</v>
+        <v>852.7880352455571</v>
       </c>
       <c r="AC2" t="n">
-        <v>664.4326665816466</v>
+        <v>771.3991420572452</v>
       </c>
       <c r="AD2" t="n">
-        <v>536845.5206268359</v>
+        <v>623271.8450755586</v>
       </c>
       <c r="AE2" t="n">
-        <v>734535.7252744781</v>
+        <v>852788.0352455571</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.03829896849179e-06</v>
+        <v>2.138151890397336e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.38020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>664432.6665816465</v>
+        <v>771399.1420572451</v>
       </c>
     </row>
     <row r="3">
@@ -55260,28 +55260,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>446.6637121331443</v>
+        <v>522.2760896075241</v>
       </c>
       <c r="AB3" t="n">
-        <v>611.14499635281</v>
+        <v>714.6011869959231</v>
       </c>
       <c r="AC3" t="n">
-        <v>552.8181756482867</v>
+        <v>646.4006526580965</v>
       </c>
       <c r="AD3" t="n">
-        <v>446663.7121331443</v>
+        <v>522276.0896075242</v>
       </c>
       <c r="AE3" t="n">
-        <v>611144.9963528101</v>
+        <v>714601.1869959231</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.177456478901897e-06</v>
+        <v>2.424716649657916e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.44661458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>552818.1756482867</v>
+        <v>646400.6526580965</v>
       </c>
     </row>
     <row r="4">
@@ -55366,28 +55366,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>413.3380804670151</v>
+        <v>499.6789745526152</v>
       </c>
       <c r="AB4" t="n">
-        <v>565.5473968841061</v>
+        <v>683.6828172634389</v>
       </c>
       <c r="AC4" t="n">
-        <v>511.572347076243</v>
+        <v>618.4330887386762</v>
       </c>
       <c r="AD4" t="n">
-        <v>413338.080467015</v>
+        <v>499678.9745526152</v>
       </c>
       <c r="AE4" t="n">
-        <v>565547.3968841061</v>
+        <v>683682.8172634389</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.226995089442184e-06</v>
+        <v>2.526730690881735e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.86067708333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>511572.347076243</v>
+        <v>618433.0887386763</v>
       </c>
     </row>
     <row r="5">
@@ -55472,28 +55472,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>399.7835522427718</v>
+        <v>475.4811810631722</v>
       </c>
       <c r="AB5" t="n">
-        <v>547.0014933841148</v>
+        <v>650.5743286798769</v>
       </c>
       <c r="AC5" t="n">
-        <v>494.7964385769518</v>
+        <v>588.484427837474</v>
       </c>
       <c r="AD5" t="n">
-        <v>399783.5522427718</v>
+        <v>475481.1810631722</v>
       </c>
       <c r="AE5" t="n">
-        <v>547001.4933841148</v>
+        <v>650574.3286798769</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.25442944654519e-06</v>
+        <v>2.58322580864809e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.56119791666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>494796.4385769518</v>
+        <v>588484.4278374739</v>
       </c>
     </row>
     <row r="6">
@@ -55578,28 +55578,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>390.7934818214144</v>
+        <v>466.3205184412226</v>
       </c>
       <c r="AB6" t="n">
-        <v>534.7008824196981</v>
+        <v>638.0403059406134</v>
       </c>
       <c r="AC6" t="n">
-        <v>483.6697806589632</v>
+        <v>577.1466346368342</v>
       </c>
       <c r="AD6" t="n">
-        <v>390793.4818214144</v>
+        <v>466320.5184412226</v>
       </c>
       <c r="AE6" t="n">
-        <v>534700.8824196982</v>
+        <v>638040.3059406134</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.268407904688151e-06</v>
+        <v>2.6120114162719e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.41145833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>483669.7806589633</v>
+        <v>577146.6346368341</v>
       </c>
     </row>
     <row r="7">
@@ -55684,28 +55684,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>382.3240794241748</v>
+        <v>457.8511160439831</v>
       </c>
       <c r="AB7" t="n">
-        <v>523.1126724161317</v>
+        <v>626.4520959370469</v>
       </c>
       <c r="AC7" t="n">
-        <v>473.1875331539823</v>
+        <v>566.6643871318532</v>
       </c>
       <c r="AD7" t="n">
-        <v>382324.0794241749</v>
+        <v>457851.1160439831</v>
       </c>
       <c r="AE7" t="n">
-        <v>523112.6724161317</v>
+        <v>626452.0959370469</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.278623936714127e-06</v>
+        <v>2.63304912203061e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.30078125</v>
       </c>
       <c r="AH7" t="n">
-        <v>473187.5331539823</v>
+        <v>566664.3871318533</v>
       </c>
     </row>
     <row r="8">
@@ -55790,28 +55790,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>375.0893599929602</v>
+        <v>450.6163966127685</v>
       </c>
       <c r="AB8" t="n">
-        <v>513.2138101170488</v>
+        <v>616.5532336379639</v>
       </c>
       <c r="AC8" t="n">
-        <v>464.2334043795832</v>
+        <v>557.7102583574543</v>
       </c>
       <c r="AD8" t="n">
-        <v>375089.3599929602</v>
+        <v>450616.3966127685</v>
       </c>
       <c r="AE8" t="n">
-        <v>513213.8101170488</v>
+        <v>616553.2336379639</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.285338822214578e-06</v>
+        <v>2.646876974664852e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.23567708333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>464233.4043795833</v>
+        <v>557710.2583574543</v>
       </c>
     </row>
     <row r="9">
@@ -55896,28 +55896,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>371.7859512833762</v>
+        <v>436.6697226379847</v>
       </c>
       <c r="AB9" t="n">
-        <v>508.693940584489</v>
+        <v>597.4707790218336</v>
       </c>
       <c r="AC9" t="n">
-        <v>460.1449048515343</v>
+        <v>540.4490064274941</v>
       </c>
       <c r="AD9" t="n">
-        <v>371785.9512833761</v>
+        <v>436669.7226379847</v>
       </c>
       <c r="AE9" t="n">
-        <v>508693.940584489</v>
+        <v>597470.7790218336</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.290982461390053e-06</v>
+        <v>2.658498827462502e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.17708333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>460144.9048515343</v>
+        <v>540449.0064274941</v>
       </c>
     </row>
     <row r="10">
@@ -56002,28 +56002,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>373.3389084943479</v>
+        <v>438.2226798489565</v>
       </c>
       <c r="AB10" t="n">
-        <v>510.8187651521775</v>
+        <v>599.5956035895221</v>
       </c>
       <c r="AC10" t="n">
-        <v>462.0669391446926</v>
+        <v>542.3710407206523</v>
       </c>
       <c r="AD10" t="n">
-        <v>373338.9084943479</v>
+        <v>438222.6798489565</v>
       </c>
       <c r="AE10" t="n">
-        <v>510818.7651521775</v>
+        <v>599595.6035895221</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.290982461390053e-06</v>
+        <v>2.658498827462502e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.17708333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>462066.9391446926</v>
+        <v>542371.0407206523</v>
       </c>
     </row>
   </sheetData>
@@ -56299,28 +56299,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>656.1587193702431</v>
+        <v>757.5104853292052</v>
       </c>
       <c r="AB2" t="n">
-        <v>897.7853075220415</v>
+        <v>1036.459265031437</v>
       </c>
       <c r="AC2" t="n">
-        <v>812.1019378217301</v>
+        <v>937.5410474565507</v>
       </c>
       <c r="AD2" t="n">
-        <v>656158.7193702431</v>
+        <v>757510.4853292052</v>
       </c>
       <c r="AE2" t="n">
-        <v>897785.3075220415</v>
+        <v>1036459.265031437</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.244440365295895e-07</v>
+        <v>1.831493837404806e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.71484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>812101.93782173</v>
+        <v>937541.0474565506</v>
       </c>
     </row>
     <row r="3">
@@ -56405,28 +56405,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>530.1878884409846</v>
+        <v>609.0171292509506</v>
       </c>
       <c r="AB3" t="n">
-        <v>725.4264592037939</v>
+        <v>833.2841041806498</v>
       </c>
       <c r="AC3" t="n">
-        <v>656.192776079813</v>
+        <v>753.7566387992334</v>
       </c>
       <c r="AD3" t="n">
-        <v>530187.8884409845</v>
+        <v>609017.1292509505</v>
       </c>
       <c r="AE3" t="n">
-        <v>725426.4592037939</v>
+        <v>833284.1041806499</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.086068922504789e-06</v>
+        <v>2.151702493567583e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.078125</v>
       </c>
       <c r="AH3" t="n">
-        <v>656192.776079813</v>
+        <v>753756.6387992335</v>
       </c>
     </row>
     <row r="4">
@@ -56511,28 +56511,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>487.2244651849221</v>
+        <v>565.9683651403165</v>
       </c>
       <c r="AB4" t="n">
-        <v>666.6420080923865</v>
+        <v>774.3828859470449</v>
       </c>
       <c r="AC4" t="n">
-        <v>603.0186304779832</v>
+        <v>700.4768701654647</v>
       </c>
       <c r="AD4" t="n">
-        <v>487224.465184922</v>
+        <v>565968.3651403164</v>
       </c>
       <c r="AE4" t="n">
-        <v>666642.0080923865</v>
+        <v>774382.8859470449</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.147021000126254e-06</v>
+        <v>2.272459781331382e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.27734375</v>
       </c>
       <c r="AH4" t="n">
-        <v>603018.6304779832</v>
+        <v>700476.8701654647</v>
       </c>
     </row>
     <row r="5">
@@ -56617,28 +56617,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>461.1295290194606</v>
+        <v>551.0493059405057</v>
       </c>
       <c r="AB5" t="n">
-        <v>630.9377652034681</v>
+        <v>753.9699709674244</v>
       </c>
       <c r="AC5" t="n">
-        <v>570.7219504191634</v>
+        <v>682.0121351417929</v>
       </c>
       <c r="AD5" t="n">
-        <v>461129.5290194605</v>
+        <v>551049.3059405057</v>
       </c>
       <c r="AE5" t="n">
-        <v>630937.765203468</v>
+        <v>753969.9709674243</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.175270766188533e-06</v>
+        <v>2.328427769015553e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.93229166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>570721.9504191633</v>
+        <v>682012.1351417929</v>
       </c>
     </row>
     <row r="6">
@@ -56723,28 +56723,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>450.5912092309259</v>
+        <v>529.4203605323407</v>
       </c>
       <c r="AB6" t="n">
-        <v>616.5187711509382</v>
+        <v>724.3762936582457</v>
       </c>
       <c r="AC6" t="n">
-        <v>557.6790849218218</v>
+        <v>655.2428368600155</v>
       </c>
       <c r="AD6" t="n">
-        <v>450591.2092309259</v>
+        <v>529420.3605323407</v>
       </c>
       <c r="AE6" t="n">
-        <v>616518.7711509381</v>
+        <v>724376.2936582457</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.193080948176151e-06</v>
+        <v>2.363713018597381e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.72395833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>557679.0849218217</v>
+        <v>655242.8368600155</v>
       </c>
     </row>
     <row r="7">
@@ -56829,28 +56829,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>442.5568999352936</v>
+        <v>521.3860512367085</v>
       </c>
       <c r="AB7" t="n">
-        <v>605.5258747239435</v>
+        <v>713.3833972312511</v>
       </c>
       <c r="AC7" t="n">
-        <v>547.7353351011925</v>
+        <v>645.2990870393862</v>
       </c>
       <c r="AD7" t="n">
-        <v>442556.8999352936</v>
+        <v>521386.0512367084</v>
       </c>
       <c r="AE7" t="n">
-        <v>605525.8747239435</v>
+        <v>713383.3972312511</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.206010939054167e-06</v>
+        <v>2.389329711090403e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.58072916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>547735.3351011925</v>
+        <v>645299.0870393863</v>
       </c>
     </row>
     <row r="8">
@@ -56935,28 +56935,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>434.9870047945004</v>
+        <v>513.645563895323</v>
       </c>
       <c r="AB8" t="n">
-        <v>595.1684102321065</v>
+        <v>702.7925209645671</v>
       </c>
       <c r="AC8" t="n">
-        <v>538.3663724836634</v>
+        <v>635.7189891392062</v>
       </c>
       <c r="AD8" t="n">
-        <v>434987.0047945004</v>
+        <v>513645.563895323</v>
       </c>
       <c r="AE8" t="n">
-        <v>595168.4102321065</v>
+        <v>702792.5209645671</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.217280658729947e-06</v>
+        <v>2.411657100656306e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.45703125</v>
       </c>
       <c r="AH8" t="n">
-        <v>538366.3724836635</v>
+        <v>635718.9891392062</v>
       </c>
     </row>
     <row r="9">
@@ -57041,28 +57041,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>429.5711855165955</v>
+        <v>508.2297446174182</v>
       </c>
       <c r="AB9" t="n">
-        <v>587.7582473669934</v>
+        <v>695.382358099454</v>
       </c>
       <c r="AC9" t="n">
-        <v>531.6634251621679</v>
+        <v>629.0160418177107</v>
       </c>
       <c r="AD9" t="n">
-        <v>429571.1855165955</v>
+        <v>508229.7446174182</v>
       </c>
       <c r="AE9" t="n">
-        <v>587758.2473669933</v>
+        <v>695382.358099454</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.222160849839548e-06</v>
+        <v>2.421325657745111e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.3984375</v>
       </c>
       <c r="AH9" t="n">
-        <v>531663.4251621679</v>
+        <v>629016.0418177107</v>
       </c>
     </row>
     <row r="10">
@@ -57147,28 +57147,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>423.8271139459537</v>
+        <v>502.4856730467764</v>
       </c>
       <c r="AB10" t="n">
-        <v>579.8989552334882</v>
+        <v>687.5230659659488</v>
       </c>
       <c r="AC10" t="n">
-        <v>524.5542128392988</v>
+        <v>621.9068294948416</v>
       </c>
       <c r="AD10" t="n">
-        <v>423827.1139459537</v>
+        <v>502485.6730467764</v>
       </c>
       <c r="AE10" t="n">
-        <v>579898.9552334882</v>
+        <v>687523.0659659489</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.227745398428886e-06</v>
+        <v>2.432389676681787e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.33984375</v>
       </c>
       <c r="AH10" t="n">
-        <v>524554.2128392988</v>
+        <v>621906.8294948416</v>
       </c>
     </row>
     <row r="11">
@@ -57253,28 +57253,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>418.340036178707</v>
+        <v>496.9985952795297</v>
       </c>
       <c r="AB11" t="n">
-        <v>572.391293359555</v>
+        <v>680.0154040920155</v>
       </c>
       <c r="AC11" t="n">
-        <v>517.7630716775441</v>
+        <v>615.1156883330868</v>
       </c>
       <c r="AD11" t="n">
-        <v>418340.036178707</v>
+        <v>496998.5952795297</v>
       </c>
       <c r="AE11" t="n">
-        <v>572391.293359555</v>
+        <v>680015.4040920155</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.233078390775461e-06</v>
+        <v>2.44295531638708e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.28125</v>
       </c>
       <c r="AH11" t="n">
-        <v>517763.071677544</v>
+        <v>615115.6883330868</v>
       </c>
     </row>
     <row r="12">
@@ -57359,28 +57359,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>413.0879692616382</v>
+        <v>491.7465283624608</v>
       </c>
       <c r="AB12" t="n">
-        <v>565.2051836987819</v>
+        <v>672.8292944312425</v>
       </c>
       <c r="AC12" t="n">
-        <v>511.2627942370268</v>
+        <v>608.6154108925697</v>
       </c>
       <c r="AD12" t="n">
-        <v>413087.9692616382</v>
+        <v>491746.5283624608</v>
       </c>
       <c r="AE12" t="n">
-        <v>565205.1836987819</v>
+        <v>672829.2944312425</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.235920976318682e-06</v>
+        <v>2.448587001701693e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13.24869791666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>511262.7942370268</v>
+        <v>608615.4108925697</v>
       </c>
     </row>
     <row r="13">
@@ -57465,28 +57465,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>410.866090671187</v>
+        <v>489.5246497720098</v>
       </c>
       <c r="AB13" t="n">
-        <v>562.1651113889613</v>
+        <v>669.789222121422</v>
       </c>
       <c r="AC13" t="n">
-        <v>508.5128621616873</v>
+        <v>605.86547881723</v>
       </c>
       <c r="AD13" t="n">
-        <v>410866.090671187</v>
+        <v>489524.6497720098</v>
       </c>
       <c r="AE13" t="n">
-        <v>562165.1113889613</v>
+        <v>669789.2221214219</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.238084360006444e-06</v>
+        <v>2.452873063091577e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>14</v>
+        <v>13.22916666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>508512.8621616873</v>
+        <v>605865.4788172301</v>
       </c>
     </row>
     <row r="14">
@@ -57571,28 +57571,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>412.3903393397213</v>
+        <v>491.0488984405439</v>
       </c>
       <c r="AB14" t="n">
-        <v>564.250655662355</v>
+        <v>671.8747663948157</v>
       </c>
       <c r="AC14" t="n">
-        <v>510.399365016708</v>
+        <v>607.7519816722508</v>
       </c>
       <c r="AD14" t="n">
-        <v>412390.3393397212</v>
+        <v>491048.8984405439</v>
       </c>
       <c r="AE14" t="n">
-        <v>564250.655662355</v>
+        <v>671874.7663948156</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.237983737509339e-06</v>
+        <v>2.452673711399024e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>14</v>
+        <v>13.22916666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>510399.365016708</v>
+        <v>607751.9816722509</v>
       </c>
     </row>
   </sheetData>
